--- a/Saved_file/EM001/2026_12/work_logs_EM001_2026_12.xlsx
+++ b/Saved_file/EM001/2026_12/work_logs_EM001_2026_12.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-12-06 15:23:48</t>
+          <t>2026-12-22 10:23:20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.251</t>
+          <t>Face verification failed - Similarity: 0.217</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20261206_000</t>
+          <t>SESS_20261222_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15:23:48</t>
+          <t>10:23:20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -528,17 +528,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-12-26 16:03:58</t>
+          <t>2026-12-27 18:32:57</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.280</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20261226_001</t>
+          <t>SESS_20261227_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:03:58</t>
+          <t>18:32:57</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-12-18 10:02:34</t>
+          <t>2026-12-14 11:39:28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.367</t>
+          <t>Face verification failed - Similarity: 0.241</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20261218_002</t>
+          <t>SESS_20261214_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10:02:34</t>
+          <t>11:39:28</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,17 +628,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-12-17 13:46:02</t>
+          <t>2026-12-08 18:22:32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.252</t>
+          <t>Mouse anomaly detected - Score: 0.837</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20261217_003</t>
+          <t>SESS_20261208_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:46:02</t>
+          <t>18:22:32</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-12-03 10:25:19</t>
+          <t>2026-12-01 17:23:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.390</t>
+          <t>Mouse anomaly detected - Score: 0.752</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20261203_004</t>
+          <t>SESS_20261201_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10:25:19</t>
+          <t>17:23:36</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-12-10 20:48:48</t>
+          <t>2026-12-08 09:22:11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.268</t>
+          <t>Mouse anomaly detected - Score: 0.817</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20261210_005</t>
+          <t>SESS_20261208_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20:48:48</t>
+          <t>09:22:11</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-12-06 10:22:34</t>
+          <t>2026-12-19 16:36:57</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.269</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20261206_006</t>
+          <t>SESS_20261219_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -811,15 +811,115 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10:22:34</t>
+          <t>16:36:57</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-12-13 10:40:52</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FACE_MATCH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.440</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SESS_20261213_007</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-12-13</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10:40:52</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-12-05 08:27:24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FACE_MISMATCH</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.393</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SESS_20261205_008</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-12-05</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>08:27:24</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Face</t>
         </is>
@@ -979,7 +1079,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-12-01 10:58:39</t>
+          <t>2026-12-01 16:34:11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -989,7 +1089,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.084</t>
+          <t>Mouse session - Score: 0.115</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1017,7 +1117,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10:58:39</t>
+          <t>16:34:11</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1026,58 +1126,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>26202</v>
+        <v>14313</v>
       </c>
       <c r="L2" t="n">
-        <v>26202</v>
+        <v>14313</v>
       </c>
       <c r="M2" t="n">
-        <v>13204.68</v>
+        <v>30719.55</v>
       </c>
       <c r="N2" t="n">
-        <v>7922.81</v>
+        <v>18431.73</v>
       </c>
       <c r="O2" t="n">
-        <v>5281.87</v>
+        <v>12287.82</v>
       </c>
       <c r="P2" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" t="n">
-        <v>104.19</v>
+        <v>62.83</v>
       </c>
       <c r="S2" t="n">
-        <v>126.74</v>
+        <v>488.94</v>
       </c>
       <c r="T2" t="n">
-        <v>9.460000000000001</v>
+        <v>45.41</v>
       </c>
       <c r="U2" t="n">
-        <v>76.04000000000001</v>
+        <v>293.37</v>
       </c>
       <c r="V2" t="n">
-        <v>50.7</v>
+        <v>195.58</v>
       </c>
       <c r="W2" t="n">
-        <v>12.13</v>
+        <v>27.16</v>
       </c>
       <c r="X2" t="n">
-        <v>7.31</v>
+        <v>24.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.19</v>
+        <v>62.83</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-12-01 09:19:51</t>
+          <t>2026-12-01 09:16:18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1087,7 +1187,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.109</t>
+          <t>Mouse session - Score: 0.164</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1115,7 +1215,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>09:19:51</t>
+          <t>09:16:18</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1124,58 +1224,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>27514</v>
+        <v>6794</v>
       </c>
       <c r="L3" t="n">
-        <v>27514</v>
+        <v>6794</v>
       </c>
       <c r="M3" t="n">
-        <v>17016.98</v>
+        <v>24027.51</v>
       </c>
       <c r="N3" t="n">
-        <v>10210.19</v>
+        <v>14416.5</v>
       </c>
       <c r="O3" t="n">
-        <v>6806.79</v>
+        <v>9611</v>
       </c>
       <c r="P3" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="R3" t="n">
-        <v>80.15000000000001</v>
+        <v>110.04</v>
       </c>
       <c r="S3" t="n">
-        <v>212.33</v>
+        <v>218.35</v>
       </c>
       <c r="T3" t="n">
-        <v>21.54</v>
+        <v>45.84</v>
       </c>
       <c r="U3" t="n">
-        <v>127.4</v>
+        <v>131.01</v>
       </c>
       <c r="V3" t="n">
-        <v>84.93000000000001</v>
+        <v>87.34</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55</v>
+        <v>10.43</v>
       </c>
       <c r="X3" t="n">
-        <v>3.98</v>
+        <v>27.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>80.15000000000001</v>
+        <v>110.04</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.109</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-12-01 13:57:55</t>
+          <t>2026-12-01 14:43:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1185,7 +1285,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.114</t>
+          <t>Mouse session - Score: 0.110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1213,7 +1313,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13:57:55</t>
+          <t>14:43:34</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1222,58 +1322,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>13389</v>
+        <v>6224</v>
       </c>
       <c r="L4" t="n">
-        <v>13389</v>
+        <v>6224</v>
       </c>
       <c r="M4" t="n">
-        <v>27383.46</v>
+        <v>15740.97</v>
       </c>
       <c r="N4" t="n">
-        <v>16430.08</v>
+        <v>9444.58</v>
       </c>
       <c r="O4" t="n">
-        <v>10953.38</v>
+        <v>6296.39</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R4" t="n">
-        <v>161.32</v>
+        <v>118.14</v>
       </c>
       <c r="S4" t="n">
-        <v>169.75</v>
+        <v>133.24</v>
       </c>
       <c r="T4" t="n">
-        <v>43.95</v>
+        <v>18.22</v>
       </c>
       <c r="U4" t="n">
-        <v>101.85</v>
+        <v>79.95</v>
       </c>
       <c r="V4" t="n">
-        <v>67.90000000000001</v>
+        <v>53.3</v>
       </c>
       <c r="W4" t="n">
-        <v>11.95</v>
+        <v>10.4</v>
       </c>
       <c r="X4" t="n">
-        <v>18.76</v>
+        <v>9.32</v>
       </c>
       <c r="Y4" t="n">
-        <v>161.32</v>
+        <v>118.14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.114</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-12-02 09:41:01</t>
+          <t>2026-12-02 13:08:13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1283,7 +1383,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.224</t>
+          <t>Mouse session - Score: 0.156</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1311,7 +1411,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09:41:01</t>
+          <t>13:08:13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1320,58 +1420,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>23076</v>
+        <v>17684</v>
       </c>
       <c r="L5" t="n">
-        <v>23076</v>
+        <v>17684</v>
       </c>
       <c r="M5" t="n">
-        <v>6217.43</v>
+        <v>39548.4</v>
       </c>
       <c r="N5" t="n">
-        <v>3730.46</v>
+        <v>23729.04</v>
       </c>
       <c r="O5" t="n">
-        <v>2486.97</v>
+        <v>15819.36</v>
       </c>
       <c r="P5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>142.78</v>
+        <v>40.36</v>
       </c>
       <c r="S5" t="n">
-        <v>43.55</v>
+        <v>979.78</v>
       </c>
       <c r="T5" t="n">
-        <v>34.36</v>
+        <v>30.77</v>
       </c>
       <c r="U5" t="n">
-        <v>26.13</v>
+        <v>587.87</v>
       </c>
       <c r="V5" t="n">
-        <v>17.42</v>
+        <v>391.91</v>
       </c>
       <c r="W5" t="n">
-        <v>6.31</v>
+        <v>18.22</v>
       </c>
       <c r="X5" t="n">
-        <v>21.47</v>
+        <v>26.86</v>
       </c>
       <c r="Y5" t="n">
-        <v>142.78</v>
+        <v>40.36</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.224</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-12-02 16:19:11</t>
+          <t>2026-12-02 14:37:07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1381,7 +1481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.129</t>
+          <t>Mouse session - Score: 0.204</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1409,7 +1509,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:19:11</t>
+          <t>14:37:07</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1418,58 +1518,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>21113</v>
+        <v>13868</v>
       </c>
       <c r="L6" t="n">
-        <v>21113</v>
+        <v>13868</v>
       </c>
       <c r="M6" t="n">
-        <v>22350.07</v>
+        <v>38760.15</v>
       </c>
       <c r="N6" t="n">
-        <v>13410.04</v>
+        <v>23256.09</v>
       </c>
       <c r="O6" t="n">
-        <v>8940.030000000001</v>
+        <v>15504.06</v>
       </c>
       <c r="P6" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R6" t="n">
-        <v>96.73</v>
+        <v>119.83</v>
       </c>
       <c r="S6" t="n">
-        <v>231.05</v>
+        <v>323.46</v>
       </c>
       <c r="T6" t="n">
-        <v>15.87</v>
+        <v>49.65</v>
       </c>
       <c r="U6" t="n">
-        <v>138.63</v>
+        <v>194.07</v>
       </c>
       <c r="V6" t="n">
-        <v>92.42</v>
+        <v>129.38</v>
       </c>
       <c r="W6" t="n">
-        <v>19.02</v>
+        <v>16.03</v>
       </c>
       <c r="X6" t="n">
-        <v>14.22</v>
+        <v>15.01</v>
       </c>
       <c r="Y6" t="n">
-        <v>96.73</v>
+        <v>119.83</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.129</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-12-02 14:32:40</t>
+          <t>2026-12-02 14:06:05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1479,7 +1579,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.080</t>
+          <t>Mouse session - Score: 0.158</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1507,7 +1607,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14:32:40</t>
+          <t>14:06:05</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1516,58 +1616,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>19470</v>
+        <v>25756</v>
       </c>
       <c r="L7" t="n">
-        <v>19470</v>
+        <v>25756</v>
       </c>
       <c r="M7" t="n">
-        <v>8653.860000000001</v>
+        <v>14868.62</v>
       </c>
       <c r="N7" t="n">
-        <v>5192.31</v>
+        <v>8921.17</v>
       </c>
       <c r="O7" t="n">
-        <v>3461.54</v>
+        <v>5947.45</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="n">
-        <v>108.5</v>
+        <v>174.5</v>
       </c>
       <c r="S7" t="n">
-        <v>79.76000000000001</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>16.98</v>
+        <v>35.51</v>
       </c>
       <c r="U7" t="n">
-        <v>47.86</v>
+        <v>51.13</v>
       </c>
       <c r="V7" t="n">
-        <v>31.9</v>
+        <v>34.08</v>
       </c>
       <c r="W7" t="n">
-        <v>14.77</v>
+        <v>16.63</v>
       </c>
       <c r="X7" t="n">
-        <v>21.35</v>
+        <v>2.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.5</v>
+        <v>174.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-12-03 12:30:06</t>
+          <t>2026-12-03 12:56:37</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1577,7 +1677,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.156</t>
+          <t>Mouse session - Score: 0.129</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1605,7 +1705,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12:30:06</t>
+          <t>12:56:37</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1614,58 +1714,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6126</v>
+        <v>18951</v>
       </c>
       <c r="L8" t="n">
-        <v>6126</v>
+        <v>18951</v>
       </c>
       <c r="M8" t="n">
-        <v>23351.03</v>
+        <v>27401.19</v>
       </c>
       <c r="N8" t="n">
-        <v>14010.62</v>
+        <v>16440.71</v>
       </c>
       <c r="O8" t="n">
-        <v>9340.41</v>
+        <v>10960.48</v>
       </c>
       <c r="P8" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>50.35</v>
+        <v>30.93</v>
       </c>
       <c r="S8" t="n">
-        <v>463.8</v>
+        <v>885.97</v>
       </c>
       <c r="T8" t="n">
-        <v>46.91</v>
+        <v>14.7</v>
       </c>
       <c r="U8" t="n">
-        <v>278.28</v>
+        <v>531.58</v>
       </c>
       <c r="V8" t="n">
-        <v>185.52</v>
+        <v>354.39</v>
       </c>
       <c r="W8" t="n">
-        <v>14.64</v>
+        <v>2.59</v>
       </c>
       <c r="X8" t="n">
-        <v>5.64</v>
+        <v>23.58</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.35</v>
+        <v>30.93</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.156</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-12-03 12:05:23</t>
+          <t>2026-12-03 16:30:31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1675,7 +1775,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.112</t>
+          <t>Mouse session - Score: 0.228</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1703,7 +1803,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12:05:23</t>
+          <t>16:30:31</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1712,58 +1812,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>11195</v>
+        <v>28332</v>
       </c>
       <c r="L9" t="n">
-        <v>11195</v>
+        <v>28332</v>
       </c>
       <c r="M9" t="n">
-        <v>18649.99</v>
+        <v>16013.68</v>
       </c>
       <c r="N9" t="n">
-        <v>11189.99</v>
+        <v>9608.209999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>7460</v>
+        <v>6405.47</v>
       </c>
       <c r="P9" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R9" t="n">
-        <v>54.71</v>
+        <v>147.08</v>
       </c>
       <c r="S9" t="n">
-        <v>340.87</v>
+        <v>108.88</v>
       </c>
       <c r="T9" t="n">
-        <v>10.05</v>
+        <v>18.73</v>
       </c>
       <c r="U9" t="n">
-        <v>204.52</v>
+        <v>65.33</v>
       </c>
       <c r="V9" t="n">
-        <v>136.35</v>
+        <v>43.55</v>
       </c>
       <c r="W9" t="n">
-        <v>15.56</v>
+        <v>16.65</v>
       </c>
       <c r="X9" t="n">
-        <v>8.789999999999999</v>
+        <v>29.78</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.71</v>
+        <v>147.08</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.112</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-12-03 15:09:38</t>
+          <t>2026-12-03 12:22:05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1773,7 +1873,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.248</t>
+          <t>Mouse session - Score: 0.105</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1801,7 +1901,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15:09:38</t>
+          <t>12:22:05</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1810,58 +1910,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>24395</v>
+        <v>10662</v>
       </c>
       <c r="L10" t="n">
-        <v>24395</v>
+        <v>10662</v>
       </c>
       <c r="M10" t="n">
-        <v>17406.27</v>
+        <v>20802.44</v>
       </c>
       <c r="N10" t="n">
-        <v>10443.76</v>
+        <v>12481.47</v>
       </c>
       <c r="O10" t="n">
-        <v>6962.51</v>
+        <v>8320.98</v>
       </c>
       <c r="P10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R10" t="n">
-        <v>30.16</v>
+        <v>165.61</v>
       </c>
       <c r="S10" t="n">
-        <v>577.09</v>
+        <v>125.61</v>
       </c>
       <c r="T10" t="n">
-        <v>31.71</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>346.25</v>
+        <v>75.37</v>
       </c>
       <c r="V10" t="n">
-        <v>230.83</v>
+        <v>50.24</v>
       </c>
       <c r="W10" t="n">
-        <v>26.15</v>
+        <v>4.12</v>
       </c>
       <c r="X10" t="n">
-        <v>24.75</v>
+        <v>4.89</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.16</v>
+        <v>165.61</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.248</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-12-04 17:12:52</t>
+          <t>2026-12-04 10:07:41</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1871,7 +1971,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.148</t>
+          <t>Mouse session - Score: 0.944</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1886,11 +1986,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1899,7 +1999,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:12:52</t>
+          <t>10:07:41</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1908,58 +2008,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>12797</v>
+        <v>17490</v>
       </c>
       <c r="L11" t="n">
-        <v>12797</v>
+        <v>17490</v>
       </c>
       <c r="M11" t="n">
-        <v>31224.56</v>
+        <v>27192.73</v>
       </c>
       <c r="N11" t="n">
-        <v>18734.74</v>
+        <v>16315.64</v>
       </c>
       <c r="O11" t="n">
-        <v>12489.82</v>
+        <v>10877.09</v>
       </c>
       <c r="P11" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R11" t="n">
-        <v>81.17</v>
+        <v>122.66</v>
       </c>
       <c r="S11" t="n">
-        <v>384.7</v>
+        <v>221.69</v>
       </c>
       <c r="T11" t="n">
-        <v>42.55</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>230.82</v>
+        <v>133.01</v>
       </c>
       <c r="V11" t="n">
-        <v>153.88</v>
+        <v>88.67</v>
       </c>
       <c r="W11" t="n">
-        <v>23.62</v>
+        <v>28.71</v>
       </c>
       <c r="X11" t="n">
-        <v>22.49</v>
+        <v>6.38</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.17</v>
+        <v>122.66</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.148</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-12-04 15:52:39</t>
+          <t>2026-12-04 17:01:46</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1969,7 +2069,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.115</t>
+          <t>Mouse session - Score: 0.201</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1997,7 +2097,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15:52:39</t>
+          <t>17:01:46</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2006,58 +2106,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7360</v>
+        <v>16323</v>
       </c>
       <c r="L12" t="n">
-        <v>7360</v>
+        <v>16323</v>
       </c>
       <c r="M12" t="n">
-        <v>20384.7</v>
+        <v>5419.06</v>
       </c>
       <c r="N12" t="n">
-        <v>12230.82</v>
+        <v>3251.44</v>
       </c>
       <c r="O12" t="n">
-        <v>8153.88</v>
+        <v>2167.62</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>140.48</v>
+        <v>126.4</v>
       </c>
       <c r="S12" t="n">
-        <v>145.11</v>
+        <v>42.87</v>
       </c>
       <c r="T12" t="n">
-        <v>25.22</v>
+        <v>31.82</v>
       </c>
       <c r="U12" t="n">
-        <v>87.06999999999999</v>
+        <v>25.72</v>
       </c>
       <c r="V12" t="n">
-        <v>58.05</v>
+        <v>17.15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.31</v>
+        <v>23.33</v>
       </c>
       <c r="X12" t="n">
-        <v>29.53</v>
+        <v>5.91</v>
       </c>
       <c r="Y12" t="n">
-        <v>140.48</v>
+        <v>126.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.115</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-12-04 16:17:58</t>
+          <t>2026-12-04 11:43:41</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2067,7 +2167,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.057</t>
+          <t>Mouse session - Score: 0.240</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2095,7 +2195,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>16:17:58</t>
+          <t>11:43:41</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2104,58 +2204,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>26269</v>
+        <v>9122</v>
       </c>
       <c r="L13" t="n">
-        <v>26269</v>
+        <v>9122</v>
       </c>
       <c r="M13" t="n">
-        <v>31739.28</v>
+        <v>19779.08</v>
       </c>
       <c r="N13" t="n">
-        <v>19043.57</v>
+        <v>11867.45</v>
       </c>
       <c r="O13" t="n">
-        <v>12695.71</v>
+        <v>7911.63</v>
       </c>
       <c r="P13" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>168.32</v>
+        <v>64.03</v>
       </c>
       <c r="S13" t="n">
-        <v>188.57</v>
+        <v>308.9</v>
       </c>
       <c r="T13" t="n">
-        <v>48.19</v>
+        <v>37.41</v>
       </c>
       <c r="U13" t="n">
-        <v>113.14</v>
+        <v>185.34</v>
       </c>
       <c r="V13" t="n">
-        <v>75.43000000000001</v>
+        <v>123.56</v>
       </c>
       <c r="W13" t="n">
-        <v>29.99</v>
+        <v>23.69</v>
       </c>
       <c r="X13" t="n">
-        <v>9.449999999999999</v>
+        <v>11.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.32</v>
+        <v>64.03</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.057</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-12-05 12:46:48</t>
+          <t>2026-12-05 14:07:07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2165,7 +2265,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.189</t>
+          <t>Mouse session - Score: 0.107</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2193,7 +2293,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12:46:48</t>
+          <t>14:07:07</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2202,58 +2302,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>10222</v>
+        <v>7531</v>
       </c>
       <c r="L14" t="n">
-        <v>10222</v>
+        <v>7531</v>
       </c>
       <c r="M14" t="n">
-        <v>21581.84</v>
+        <v>19731.4</v>
       </c>
       <c r="N14" t="n">
-        <v>12949.1</v>
+        <v>11838.84</v>
       </c>
       <c r="O14" t="n">
-        <v>8632.74</v>
+        <v>7892.56</v>
       </c>
       <c r="P14" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R14" t="n">
-        <v>150.73</v>
+        <v>175.17</v>
       </c>
       <c r="S14" t="n">
-        <v>143.19</v>
+        <v>112.64</v>
       </c>
       <c r="T14" t="n">
-        <v>15.24</v>
+        <v>22.09</v>
       </c>
       <c r="U14" t="n">
-        <v>85.91</v>
+        <v>67.59</v>
       </c>
       <c r="V14" t="n">
-        <v>57.27</v>
+        <v>45.06</v>
       </c>
       <c r="W14" t="n">
-        <v>8.56</v>
+        <v>7.95</v>
       </c>
       <c r="X14" t="n">
-        <v>7.69</v>
+        <v>24.26</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.73</v>
+        <v>175.17</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.189</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-12-05 14:41:00</t>
+          <t>2026-12-05 17:49:39</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2263,7 +2363,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.193</t>
+          <t>Mouse session - Score: 0.170</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2291,7 +2391,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14:41:00</t>
+          <t>17:49:39</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2300,58 +2400,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>22851</v>
+        <v>16511</v>
       </c>
       <c r="L15" t="n">
-        <v>22851</v>
+        <v>16511</v>
       </c>
       <c r="M15" t="n">
-        <v>11889.69</v>
+        <v>6828.55</v>
       </c>
       <c r="N15" t="n">
-        <v>7133.81</v>
+        <v>4097.13</v>
       </c>
       <c r="O15" t="n">
-        <v>4755.87</v>
+        <v>2731.42</v>
       </c>
       <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>26</v>
-      </c>
       <c r="R15" t="n">
-        <v>31.15</v>
+        <v>153.11</v>
       </c>
       <c r="S15" t="n">
-        <v>381.69</v>
+        <v>44.6</v>
       </c>
       <c r="T15" t="n">
-        <v>32.48</v>
+        <v>38.85</v>
       </c>
       <c r="U15" t="n">
-        <v>229.02</v>
+        <v>26.76</v>
       </c>
       <c r="V15" t="n">
-        <v>152.68</v>
+        <v>17.84</v>
       </c>
       <c r="W15" t="n">
-        <v>6.63</v>
+        <v>21.24</v>
       </c>
       <c r="X15" t="n">
-        <v>20.28</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>31.15</v>
+        <v>153.11</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.193</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-12-05 15:45:51</t>
+          <t>2026-12-05 17:57:23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2361,7 +2461,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.106</t>
+          <t>Mouse session - Score: 0.192</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2389,7 +2489,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:45:51</t>
+          <t>17:57:23</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2398,58 +2498,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>21625</v>
+        <v>20784</v>
       </c>
       <c r="L16" t="n">
-        <v>21625</v>
+        <v>20784</v>
       </c>
       <c r="M16" t="n">
-        <v>33659.9</v>
+        <v>6059.04</v>
       </c>
       <c r="N16" t="n">
-        <v>20195.94</v>
+        <v>3635.42</v>
       </c>
       <c r="O16" t="n">
-        <v>13463.96</v>
+        <v>2423.62</v>
       </c>
       <c r="P16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R16" t="n">
-        <v>43.37</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>776.0599999999999</v>
+        <v>69.12</v>
       </c>
       <c r="T16" t="n">
-        <v>47.75</v>
+        <v>34.59</v>
       </c>
       <c r="U16" t="n">
-        <v>465.64</v>
+        <v>41.47</v>
       </c>
       <c r="V16" t="n">
-        <v>310.43</v>
+        <v>27.65</v>
       </c>
       <c r="W16" t="n">
-        <v>17.47</v>
+        <v>16.96</v>
       </c>
       <c r="X16" t="n">
-        <v>10.61</v>
+        <v>20.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.37</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.106</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-12-07 12:27:00</t>
+          <t>2026-12-07 09:28:13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2459,7 +2559,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.213</t>
+          <t>Mouse session - Score: 0.948</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2474,11 +2574,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2487,7 +2587,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12:27:00</t>
+          <t>09:28:13</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2496,58 +2596,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>12496</v>
+        <v>17005</v>
       </c>
       <c r="L17" t="n">
-        <v>12496</v>
+        <v>17005</v>
       </c>
       <c r="M17" t="n">
-        <v>19812.2</v>
+        <v>18070.77</v>
       </c>
       <c r="N17" t="n">
-        <v>11887.32</v>
+        <v>10842.46</v>
       </c>
       <c r="O17" t="n">
-        <v>7924.88</v>
+        <v>7228.31</v>
       </c>
       <c r="P17" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>62.4</v>
+        <v>34.82</v>
       </c>
       <c r="S17" t="n">
-        <v>317.5</v>
+        <v>519</v>
       </c>
       <c r="T17" t="n">
-        <v>41.44</v>
+        <v>17.18</v>
       </c>
       <c r="U17" t="n">
-        <v>190.5</v>
+        <v>311.4</v>
       </c>
       <c r="V17" t="n">
-        <v>127</v>
+        <v>207.6</v>
       </c>
       <c r="W17" t="n">
-        <v>25.25</v>
+        <v>27.22</v>
       </c>
       <c r="X17" t="n">
-        <v>14.44</v>
+        <v>8.49</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.4</v>
+        <v>34.82</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.213</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-12-07 12:51:17</t>
+          <t>2026-12-07 11:18:40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2557,7 +2657,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.084</t>
+          <t>Mouse session - Score: 0.140</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2585,7 +2685,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12:51:17</t>
+          <t>11:18:40</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2594,58 +2694,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>24280</v>
+        <v>16430</v>
       </c>
       <c r="L18" t="n">
-        <v>24280</v>
+        <v>16430</v>
       </c>
       <c r="M18" t="n">
-        <v>20450.44</v>
+        <v>36810.37</v>
       </c>
       <c r="N18" t="n">
-        <v>12270.27</v>
+        <v>22086.22</v>
       </c>
       <c r="O18" t="n">
-        <v>8180.18</v>
+        <v>14724.15</v>
       </c>
       <c r="P18" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R18" t="n">
-        <v>107.15</v>
+        <v>179.7</v>
       </c>
       <c r="S18" t="n">
-        <v>190.86</v>
+        <v>204.84</v>
       </c>
       <c r="T18" t="n">
-        <v>15.47</v>
+        <v>11.53</v>
       </c>
       <c r="U18" t="n">
-        <v>114.52</v>
+        <v>122.91</v>
       </c>
       <c r="V18" t="n">
-        <v>76.34</v>
+        <v>81.94</v>
       </c>
       <c r="W18" t="n">
-        <v>25.09</v>
+        <v>6.67</v>
       </c>
       <c r="X18" t="n">
-        <v>23.58</v>
+        <v>7.14</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.15</v>
+        <v>179.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-12-07 11:37:22</t>
+          <t>2026-12-07 17:40:02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2655,7 +2755,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.907</t>
+          <t>Mouse session - Score: 0.227</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2670,11 +2770,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2683,7 +2783,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:37:22</t>
+          <t>17:40:02</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2692,58 +2792,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>10842</v>
+        <v>22389</v>
       </c>
       <c r="L19" t="n">
-        <v>10842</v>
+        <v>22389</v>
       </c>
       <c r="M19" t="n">
-        <v>15038.26</v>
+        <v>16477.32</v>
       </c>
       <c r="N19" t="n">
-        <v>9022.950000000001</v>
+        <v>9886.389999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>6015.3</v>
+        <v>6590.93</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>173.59</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="S19" t="n">
-        <v>86.63</v>
+        <v>219.39</v>
       </c>
       <c r="T19" t="n">
-        <v>38.22</v>
+        <v>18.36</v>
       </c>
       <c r="U19" t="n">
-        <v>51.98</v>
+        <v>131.64</v>
       </c>
       <c r="V19" t="n">
-        <v>34.65</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="W19" t="n">
-        <v>28.43</v>
+        <v>17.79</v>
       </c>
       <c r="X19" t="n">
-        <v>11.97</v>
+        <v>6.19</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.59</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.907</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-12-08 09:16:26</t>
+          <t>2026-12-08 16:42:29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2753,7 +2853,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.245</t>
+          <t>Mouse session - Score: 0.113</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2781,7 +2881,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>09:16:26</t>
+          <t>16:42:29</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2790,58 +2890,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>9167</v>
+        <v>6461</v>
       </c>
       <c r="L20" t="n">
-        <v>9167</v>
+        <v>6461</v>
       </c>
       <c r="M20" t="n">
-        <v>33792.99</v>
+        <v>28060.32</v>
       </c>
       <c r="N20" t="n">
-        <v>20275.8</v>
+        <v>16836.19</v>
       </c>
       <c r="O20" t="n">
-        <v>13517.2</v>
+        <v>11224.13</v>
       </c>
       <c r="P20" t="n">
         <v>14</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R20" t="n">
-        <v>155.11</v>
+        <v>49.43</v>
       </c>
       <c r="S20" t="n">
-        <v>217.86</v>
+        <v>567.63</v>
       </c>
       <c r="T20" t="n">
-        <v>37.1</v>
+        <v>34.07</v>
       </c>
       <c r="U20" t="n">
-        <v>130.72</v>
+        <v>340.58</v>
       </c>
       <c r="V20" t="n">
-        <v>87.14</v>
+        <v>227.05</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>10.18</v>
       </c>
       <c r="X20" t="n">
-        <v>18.28</v>
+        <v>13.41</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.11</v>
+        <v>49.43</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.245</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-12-08 12:40:46</t>
+          <t>2026-12-08 11:06:27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2851,7 +2951,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.052</t>
+          <t>Mouse session - Score: 0.221</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2879,7 +2979,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12:40:46</t>
+          <t>11:06:27</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2888,58 +2988,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>14462</v>
+        <v>24514</v>
       </c>
       <c r="L21" t="n">
-        <v>14462</v>
+        <v>24514</v>
       </c>
       <c r="M21" t="n">
-        <v>32653.52</v>
+        <v>35154.01</v>
       </c>
       <c r="N21" t="n">
-        <v>19592.11</v>
+        <v>21092.4</v>
       </c>
       <c r="O21" t="n">
-        <v>13061.41</v>
+        <v>14061.6</v>
       </c>
       <c r="P21" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>59.38</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="S21" t="n">
-        <v>549.92</v>
+        <v>509.18</v>
       </c>
       <c r="T21" t="n">
-        <v>22.6</v>
+        <v>40.51</v>
       </c>
       <c r="U21" t="n">
-        <v>329.95</v>
+        <v>305.51</v>
       </c>
       <c r="V21" t="n">
-        <v>219.97</v>
+        <v>203.67</v>
       </c>
       <c r="W21" t="n">
-        <v>15.58</v>
+        <v>18.95</v>
       </c>
       <c r="X21" t="n">
-        <v>12.59</v>
+        <v>18.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>59.38</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.052</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-12-08 15:56:37</t>
+          <t>2026-12-08 15:00:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2949,7 +3049,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.233</t>
+          <t>Mouse session - Score: 0.137</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2977,7 +3077,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:56:37</t>
+          <t>15:00:45</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2986,58 +3086,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>12955</v>
+        <v>17268</v>
       </c>
       <c r="L22" t="n">
-        <v>12955</v>
+        <v>17268</v>
       </c>
       <c r="M22" t="n">
-        <v>30389.08</v>
+        <v>20057.61</v>
       </c>
       <c r="N22" t="n">
-        <v>18233.45</v>
+        <v>12034.57</v>
       </c>
       <c r="O22" t="n">
-        <v>12155.63</v>
+        <v>8023.05</v>
       </c>
       <c r="P22" t="n">
         <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>133.29</v>
+        <v>120.6</v>
       </c>
       <c r="S22" t="n">
-        <v>228</v>
+        <v>166.32</v>
       </c>
       <c r="T22" t="n">
-        <v>33.55</v>
+        <v>46.27</v>
       </c>
       <c r="U22" t="n">
-        <v>136.8</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>91.2</v>
+        <v>66.53</v>
       </c>
       <c r="W22" t="n">
-        <v>25.62</v>
+        <v>7.72</v>
       </c>
       <c r="X22" t="n">
-        <v>13.25</v>
+        <v>21.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.29</v>
+        <v>120.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.233</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-12-09 09:31:24</t>
+          <t>2026-12-09 12:18:12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3047,7 +3147,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.164</t>
+          <t>Mouse session - Score: 0.196</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3075,7 +3175,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>09:31:24</t>
+          <t>12:18:12</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3084,58 +3184,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>10936</v>
+        <v>16187</v>
       </c>
       <c r="L23" t="n">
-        <v>10936</v>
+        <v>16187</v>
       </c>
       <c r="M23" t="n">
-        <v>26027.36</v>
+        <v>10700.83</v>
       </c>
       <c r="N23" t="n">
-        <v>15616.42</v>
+        <v>6420.5</v>
       </c>
       <c r="O23" t="n">
-        <v>10410.94</v>
+        <v>4280.33</v>
       </c>
       <c r="P23" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>154.71</v>
+        <v>39.8</v>
       </c>
       <c r="S23" t="n">
-        <v>168.23</v>
+        <v>268.86</v>
       </c>
       <c r="T23" t="n">
-        <v>18.93</v>
+        <v>37.1</v>
       </c>
       <c r="U23" t="n">
-        <v>100.94</v>
+        <v>161.32</v>
       </c>
       <c r="V23" t="n">
-        <v>67.29000000000001</v>
+        <v>107.54</v>
       </c>
       <c r="W23" t="n">
-        <v>11.12</v>
+        <v>25.92</v>
       </c>
       <c r="X23" t="n">
-        <v>8.9</v>
+        <v>15.74</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.71</v>
+        <v>39.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.164</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-12-09 13:55:17</t>
+          <t>2026-12-09 15:29:11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3145,7 +3245,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.098</t>
+          <t>Mouse session - Score: 0.140</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3173,7 +3273,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13:55:17</t>
+          <t>15:29:11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3182,58 +3282,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>28219</v>
+        <v>16545</v>
       </c>
       <c r="L24" t="n">
-        <v>28219</v>
+        <v>16545</v>
       </c>
       <c r="M24" t="n">
-        <v>30411.11</v>
+        <v>20401.61</v>
       </c>
       <c r="N24" t="n">
-        <v>18246.66</v>
+        <v>12240.97</v>
       </c>
       <c r="O24" t="n">
-        <v>12164.44</v>
+        <v>8160.64</v>
       </c>
       <c r="P24" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R24" t="n">
-        <v>144.37</v>
+        <v>51.75</v>
       </c>
       <c r="S24" t="n">
-        <v>210.64</v>
+        <v>394.24</v>
       </c>
       <c r="T24" t="n">
-        <v>42.39</v>
+        <v>20.41</v>
       </c>
       <c r="U24" t="n">
-        <v>126.38</v>
+        <v>236.55</v>
       </c>
       <c r="V24" t="n">
-        <v>84.26000000000001</v>
+        <v>157.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.98</v>
+        <v>24.71</v>
       </c>
       <c r="X24" t="n">
-        <v>4.07</v>
+        <v>27.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.37</v>
+        <v>51.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.098</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-12-09 14:18:00</t>
+          <t>2026-12-09 17:19:43</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3243,7 +3343,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.218</t>
+          <t>Mouse session - Score: 0.226</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3271,7 +3371,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>14:18:00</t>
+          <t>17:19:43</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3280,58 +3380,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>20502</v>
+        <v>17826</v>
       </c>
       <c r="L25" t="n">
-        <v>20502</v>
+        <v>17826</v>
       </c>
       <c r="M25" t="n">
-        <v>23599.81</v>
+        <v>28728.99</v>
       </c>
       <c r="N25" t="n">
-        <v>14159.89</v>
+        <v>17237.39</v>
       </c>
       <c r="O25" t="n">
-        <v>9439.92</v>
+        <v>11491.59</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R25" t="n">
-        <v>172.23</v>
+        <v>40.56</v>
       </c>
       <c r="S25" t="n">
-        <v>137.02</v>
+        <v>708.3099999999999</v>
       </c>
       <c r="T25" t="n">
-        <v>23.24</v>
+        <v>21.82</v>
       </c>
       <c r="U25" t="n">
-        <v>82.20999999999999</v>
+        <v>424.99</v>
       </c>
       <c r="V25" t="n">
-        <v>54.81</v>
+        <v>283.32</v>
       </c>
       <c r="W25" t="n">
-        <v>11.18</v>
+        <v>15.38</v>
       </c>
       <c r="X25" t="n">
-        <v>13.35</v>
+        <v>20.48</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.23</v>
+        <v>40.56</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.218</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-12-10 17:06:39</t>
+          <t>2026-12-10 13:06:59</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3341,7 +3441,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.055</t>
+          <t>Mouse session - Score: 0.169</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3369,7 +3469,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>17:06:39</t>
+          <t>13:06:59</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3378,58 +3478,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>19108</v>
+        <v>14238</v>
       </c>
       <c r="L26" t="n">
-        <v>19108</v>
+        <v>14238</v>
       </c>
       <c r="M26" t="n">
-        <v>29469.14</v>
+        <v>16275.1</v>
       </c>
       <c r="N26" t="n">
-        <v>17681.48</v>
+        <v>9765.059999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>11787.65</v>
+        <v>6510.04</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>123.43</v>
+        <v>79.55</v>
       </c>
       <c r="S26" t="n">
-        <v>238.74</v>
+        <v>204.6</v>
       </c>
       <c r="T26" t="n">
-        <v>8.970000000000001</v>
+        <v>25.45</v>
       </c>
       <c r="U26" t="n">
-        <v>143.25</v>
+        <v>122.76</v>
       </c>
       <c r="V26" t="n">
-        <v>95.5</v>
+        <v>81.84</v>
       </c>
       <c r="W26" t="n">
-        <v>24.15</v>
+        <v>4.4</v>
       </c>
       <c r="X26" t="n">
-        <v>6.87</v>
+        <v>14.35</v>
       </c>
       <c r="Y26" t="n">
-        <v>123.43</v>
+        <v>79.55</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.055</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-12-10 09:20:00</t>
+          <t>2026-12-10 16:53:10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3439,7 +3539,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.138</t>
+          <t>Mouse session - Score: 0.230</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3467,7 +3567,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>16:53:10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3476,58 +3576,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>15609</v>
+        <v>25157</v>
       </c>
       <c r="L27" t="n">
-        <v>15609</v>
+        <v>25157</v>
       </c>
       <c r="M27" t="n">
-        <v>23692.19</v>
+        <v>30352.23</v>
       </c>
       <c r="N27" t="n">
-        <v>14215.31</v>
+        <v>18211.34</v>
       </c>
       <c r="O27" t="n">
-        <v>9476.870000000001</v>
+        <v>12140.89</v>
       </c>
       <c r="P27" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q27" t="n">
         <v>29</v>
       </c>
       <c r="R27" t="n">
-        <v>170.03</v>
+        <v>51.42</v>
       </c>
       <c r="S27" t="n">
-        <v>139.34</v>
+        <v>590.3200000000001</v>
       </c>
       <c r="T27" t="n">
-        <v>42.98</v>
+        <v>41.25</v>
       </c>
       <c r="U27" t="n">
-        <v>83.59999999999999</v>
+        <v>354.19</v>
       </c>
       <c r="V27" t="n">
-        <v>55.74</v>
+        <v>236.13</v>
       </c>
       <c r="W27" t="n">
-        <v>18.43</v>
+        <v>3.83</v>
       </c>
       <c r="X27" t="n">
-        <v>20.66</v>
+        <v>27.87</v>
       </c>
       <c r="Y27" t="n">
-        <v>170.03</v>
+        <v>51.42</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.138</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-12-10 13:58:31</t>
+          <t>2026-12-10 09:34:14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3537,7 +3637,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.150</t>
+          <t>Mouse session - Score: 0.101</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3565,7 +3665,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13:58:31</t>
+          <t>09:34:14</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3574,58 +3674,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>22315</v>
+        <v>20714</v>
       </c>
       <c r="L28" t="n">
-        <v>22315</v>
+        <v>20714</v>
       </c>
       <c r="M28" t="n">
-        <v>38100.45</v>
+        <v>35381.81</v>
       </c>
       <c r="N28" t="n">
-        <v>22860.27</v>
+        <v>21229.09</v>
       </c>
       <c r="O28" t="n">
-        <v>15240.18</v>
+        <v>14152.72</v>
       </c>
       <c r="P28" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R28" t="n">
-        <v>166.15</v>
+        <v>44.4</v>
       </c>
       <c r="S28" t="n">
-        <v>229.31</v>
+        <v>796.92</v>
       </c>
       <c r="T28" t="n">
-        <v>9.65</v>
+        <v>33.43</v>
       </c>
       <c r="U28" t="n">
-        <v>137.59</v>
+        <v>478.15</v>
       </c>
       <c r="V28" t="n">
-        <v>91.72</v>
+        <v>318.77</v>
       </c>
       <c r="W28" t="n">
-        <v>19.37</v>
+        <v>22.97</v>
       </c>
       <c r="X28" t="n">
-        <v>25.24</v>
+        <v>26.02</v>
       </c>
       <c r="Y28" t="n">
-        <v>166.15</v>
+        <v>44.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.15</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-12-11 17:47:07</t>
+          <t>2026-12-11 10:12:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3635,7 +3735,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.804</t>
+          <t>Mouse session - Score: 0.069</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3650,11 +3750,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3663,7 +3763,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:47:07</t>
+          <t>10:12:45</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3672,58 +3772,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5838</v>
+        <v>12326</v>
       </c>
       <c r="L29" t="n">
-        <v>5838</v>
+        <v>12326</v>
       </c>
       <c r="M29" t="n">
-        <v>25741.49</v>
+        <v>17122.89</v>
       </c>
       <c r="N29" t="n">
-        <v>15444.89</v>
+        <v>10273.73</v>
       </c>
       <c r="O29" t="n">
-        <v>10296.6</v>
+        <v>6849.16</v>
       </c>
       <c r="P29" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R29" t="n">
-        <v>90.47</v>
+        <v>165.32</v>
       </c>
       <c r="S29" t="n">
-        <v>284.54</v>
+        <v>103.58</v>
       </c>
       <c r="T29" t="n">
-        <v>36.49</v>
+        <v>12.79</v>
       </c>
       <c r="U29" t="n">
-        <v>170.73</v>
+        <v>62.15</v>
       </c>
       <c r="V29" t="n">
-        <v>113.82</v>
+        <v>41.43</v>
       </c>
       <c r="W29" t="n">
-        <v>13.95</v>
+        <v>14.87</v>
       </c>
       <c r="X29" t="n">
-        <v>10.34</v>
+        <v>8.98</v>
       </c>
       <c r="Y29" t="n">
-        <v>90.47</v>
+        <v>165.32</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.804</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-12-11 14:46:49</t>
+          <t>2026-12-11 12:51:29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3733,7 +3833,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.221</t>
+          <t>Mouse session - Score: 0.167</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3761,7 +3861,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14:46:49</t>
+          <t>12:51:29</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3770,58 +3870,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>19736</v>
+        <v>19680</v>
       </c>
       <c r="L30" t="n">
-        <v>19736</v>
+        <v>19680</v>
       </c>
       <c r="M30" t="n">
-        <v>16760.72</v>
+        <v>25165.7</v>
       </c>
       <c r="N30" t="n">
-        <v>10056.43</v>
+        <v>15099.42</v>
       </c>
       <c r="O30" t="n">
-        <v>6704.29</v>
+        <v>10066.28</v>
       </c>
       <c r="P30" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R30" t="n">
-        <v>150.05</v>
+        <v>108.16</v>
       </c>
       <c r="S30" t="n">
-        <v>111.7</v>
+        <v>232.67</v>
       </c>
       <c r="T30" t="n">
-        <v>5.58</v>
+        <v>47.92</v>
       </c>
       <c r="U30" t="n">
-        <v>67.02</v>
+        <v>139.6</v>
       </c>
       <c r="V30" t="n">
-        <v>44.68</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="W30" t="n">
-        <v>16.78</v>
+        <v>6.15</v>
       </c>
       <c r="X30" t="n">
-        <v>13.83</v>
+        <v>9.51</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.05</v>
+        <v>108.16</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.221</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-12-11 11:12:32</t>
+          <t>2026-12-11 13:13:42</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3831,7 +3931,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.087</t>
+          <t>Mouse session - Score: 0.170</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3859,7 +3959,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11:12:32</t>
+          <t>13:13:42</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3868,58 +3968,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>17843</v>
+        <v>22492</v>
       </c>
       <c r="L31" t="n">
-        <v>17843</v>
+        <v>22492</v>
       </c>
       <c r="M31" t="n">
-        <v>13637.83</v>
+        <v>39254.25</v>
       </c>
       <c r="N31" t="n">
-        <v>8182.7</v>
+        <v>23552.55</v>
       </c>
       <c r="O31" t="n">
-        <v>5455.13</v>
+        <v>15701.7</v>
       </c>
       <c r="P31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R31" t="n">
-        <v>36.04</v>
+        <v>175.15</v>
       </c>
       <c r="S31" t="n">
-        <v>378.37</v>
+        <v>224.12</v>
       </c>
       <c r="T31" t="n">
-        <v>9.460000000000001</v>
+        <v>29.27</v>
       </c>
       <c r="U31" t="n">
-        <v>227.02</v>
+        <v>134.47</v>
       </c>
       <c r="V31" t="n">
-        <v>151.35</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="W31" t="n">
-        <v>20.3</v>
+        <v>4.52</v>
       </c>
       <c r="X31" t="n">
-        <v>8.68</v>
+        <v>20.25</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.04</v>
+        <v>175.15</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-12-14 10:51:32</t>
+          <t>2026-12-14 17:05:50</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3929,7 +4029,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.946</t>
+          <t>Mouse session - Score: 0.247</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3944,11 +4044,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3957,7 +4057,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:51:32</t>
+          <t>17:05:50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3966,58 +4066,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>10915</v>
+        <v>26225</v>
       </c>
       <c r="L32" t="n">
-        <v>10915</v>
+        <v>26225</v>
       </c>
       <c r="M32" t="n">
-        <v>7183.13</v>
+        <v>25393.4</v>
       </c>
       <c r="N32" t="n">
-        <v>4309.88</v>
+        <v>15236.04</v>
       </c>
       <c r="O32" t="n">
-        <v>2873.25</v>
+        <v>10157.36</v>
       </c>
       <c r="P32" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>105.25</v>
+        <v>73.23</v>
       </c>
       <c r="S32" t="n">
-        <v>68.25</v>
+        <v>346.78</v>
       </c>
       <c r="T32" t="n">
-        <v>45.79</v>
+        <v>37.87</v>
       </c>
       <c r="U32" t="n">
-        <v>40.95</v>
+        <v>208.07</v>
       </c>
       <c r="V32" t="n">
-        <v>27.3</v>
+        <v>138.71</v>
       </c>
       <c r="W32" t="n">
-        <v>6.15</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>26.72</v>
+        <v>6.05</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.25</v>
+        <v>73.23</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.946</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-12-14 10:19:10</t>
+          <t>2026-12-14 14:12:22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4027,7 +4127,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.245</t>
+          <t>Mouse session - Score: 0.134</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4055,7 +4155,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10:19:10</t>
+          <t>14:12:22</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4064,58 +4164,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>27041</v>
+        <v>14276</v>
       </c>
       <c r="L33" t="n">
-        <v>27041</v>
+        <v>14276</v>
       </c>
       <c r="M33" t="n">
-        <v>28659.93</v>
+        <v>33983.16</v>
       </c>
       <c r="N33" t="n">
-        <v>17195.96</v>
+        <v>20389.9</v>
       </c>
       <c r="O33" t="n">
-        <v>11463.97</v>
+        <v>13593.26</v>
       </c>
       <c r="P33" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R33" t="n">
-        <v>141.07</v>
+        <v>130.62</v>
       </c>
       <c r="S33" t="n">
-        <v>203.16</v>
+        <v>260.16</v>
       </c>
       <c r="T33" t="n">
-        <v>21.69</v>
+        <v>45.43</v>
       </c>
       <c r="U33" t="n">
-        <v>121.9</v>
+        <v>156.1</v>
       </c>
       <c r="V33" t="n">
-        <v>81.27</v>
+        <v>104.07</v>
       </c>
       <c r="W33" t="n">
-        <v>18.51</v>
+        <v>7.05</v>
       </c>
       <c r="X33" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.07</v>
+        <v>130.62</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.245</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-12-14 13:01:31</t>
+          <t>2026-12-14 14:53:39</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4125,7 +4225,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.204</t>
+          <t>Mouse session - Score: 0.051</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4153,7 +4253,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13:01:31</t>
+          <t>14:53:39</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4162,58 +4262,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>8859</v>
+        <v>26494</v>
       </c>
       <c r="L34" t="n">
-        <v>8859</v>
+        <v>26494</v>
       </c>
       <c r="M34" t="n">
-        <v>11886.86</v>
+        <v>20412.25</v>
       </c>
       <c r="N34" t="n">
-        <v>7132.12</v>
+        <v>12247.35</v>
       </c>
       <c r="O34" t="n">
-        <v>4754.75</v>
+        <v>8164.9</v>
       </c>
       <c r="P34" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>115.83</v>
+        <v>46.48</v>
       </c>
       <c r="S34" t="n">
-        <v>102.62</v>
+        <v>439.16</v>
       </c>
       <c r="T34" t="n">
-        <v>48.02</v>
+        <v>44.89</v>
       </c>
       <c r="U34" t="n">
-        <v>61.57</v>
+        <v>263.5</v>
       </c>
       <c r="V34" t="n">
-        <v>41.05</v>
+        <v>175.66</v>
       </c>
       <c r="W34" t="n">
-        <v>2.56</v>
+        <v>27.03</v>
       </c>
       <c r="X34" t="n">
-        <v>2.13</v>
+        <v>28.32</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.83</v>
+        <v>46.48</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.204</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-12-15 15:46:01</t>
+          <t>2026-12-15 16:17:26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4223,7 +4323,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.247</t>
+          <t>Mouse session - Score: 0.897</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4238,11 +4338,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4251,7 +4351,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>15:46:01</t>
+          <t>16:17:26</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4260,58 +4360,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>24456</v>
+        <v>20045</v>
       </c>
       <c r="L35" t="n">
-        <v>24456</v>
+        <v>20045</v>
       </c>
       <c r="M35" t="n">
-        <v>22024.63</v>
+        <v>7260.02</v>
       </c>
       <c r="N35" t="n">
-        <v>13214.78</v>
+        <v>4356.01</v>
       </c>
       <c r="O35" t="n">
-        <v>8809.85</v>
+        <v>2904.01</v>
       </c>
       <c r="P35" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R35" t="n">
-        <v>155.11</v>
+        <v>93.13</v>
       </c>
       <c r="S35" t="n">
-        <v>141.99</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="T35" t="n">
-        <v>25.55</v>
+        <v>24.14</v>
       </c>
       <c r="U35" t="n">
-        <v>85.19</v>
+        <v>46.77</v>
       </c>
       <c r="V35" t="n">
-        <v>56.8</v>
+        <v>31.18</v>
       </c>
       <c r="W35" t="n">
-        <v>28.14</v>
+        <v>9.17</v>
       </c>
       <c r="X35" t="n">
-        <v>18.81</v>
+        <v>22.64</v>
       </c>
       <c r="Y35" t="n">
-        <v>155.11</v>
+        <v>93.13</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.247</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-12-15 14:23:41</t>
+          <t>2026-12-15 17:39:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4321,7 +4421,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.169</t>
+          <t>Mouse session - Score: 0.077</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4349,7 +4449,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>14:23:41</t>
+          <t>17:39:36</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4358,58 +4458,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>11850</v>
+        <v>15569</v>
       </c>
       <c r="L36" t="n">
-        <v>11850</v>
+        <v>15569</v>
       </c>
       <c r="M36" t="n">
-        <v>7307.49</v>
+        <v>28588.08</v>
       </c>
       <c r="N36" t="n">
-        <v>4384.49</v>
+        <v>17152.85</v>
       </c>
       <c r="O36" t="n">
-        <v>2923</v>
+        <v>11435.23</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R36" t="n">
-        <v>63.98</v>
+        <v>61.37</v>
       </c>
       <c r="S36" t="n">
-        <v>114.22</v>
+        <v>465.82</v>
       </c>
       <c r="T36" t="n">
-        <v>48.1</v>
+        <v>7.21</v>
       </c>
       <c r="U36" t="n">
-        <v>68.53</v>
+        <v>279.49</v>
       </c>
       <c r="V36" t="n">
-        <v>45.69</v>
+        <v>186.33</v>
       </c>
       <c r="W36" t="n">
-        <v>13.66</v>
+        <v>10.78</v>
       </c>
       <c r="X36" t="n">
-        <v>11.87</v>
+        <v>20.95</v>
       </c>
       <c r="Y36" t="n">
-        <v>63.98</v>
+        <v>61.37</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.169</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-12-15 14:50:23</t>
+          <t>2026-12-15 16:35:40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4419,7 +4519,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.164</t>
+          <t>Mouse session - Score: 0.221</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4447,7 +4547,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>14:50:23</t>
+          <t>16:35:40</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4456,58 +4556,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>19682</v>
+        <v>27367</v>
       </c>
       <c r="L37" t="n">
-        <v>19682</v>
+        <v>27367</v>
       </c>
       <c r="M37" t="n">
-        <v>19664.31</v>
+        <v>14301.64</v>
       </c>
       <c r="N37" t="n">
-        <v>11798.59</v>
+        <v>8580.98</v>
       </c>
       <c r="O37" t="n">
-        <v>7865.73</v>
+        <v>5720.65</v>
       </c>
       <c r="P37" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q37" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>103.06</v>
+        <v>57.5</v>
       </c>
       <c r="S37" t="n">
-        <v>190.81</v>
+        <v>248.72</v>
       </c>
       <c r="T37" t="n">
-        <v>5.93</v>
+        <v>26.12</v>
       </c>
       <c r="U37" t="n">
-        <v>114.49</v>
+        <v>149.23</v>
       </c>
       <c r="V37" t="n">
-        <v>76.31999999999999</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="W37" t="n">
-        <v>12.13</v>
+        <v>28.04</v>
       </c>
       <c r="X37" t="n">
-        <v>23.14</v>
+        <v>2.68</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.06</v>
+        <v>57.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.164</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-12-16 15:15:47</t>
+          <t>2026-12-16 16:57:50</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4517,7 +4617,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.897</t>
+          <t>Mouse session - Score: 0.072</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4532,11 +4632,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -4545,7 +4645,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15:15:47</t>
+          <t>16:57:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4554,58 +4654,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>17581</v>
+        <v>26045</v>
       </c>
       <c r="L38" t="n">
-        <v>17581</v>
+        <v>26045</v>
       </c>
       <c r="M38" t="n">
-        <v>35423.82</v>
+        <v>7059.39</v>
       </c>
       <c r="N38" t="n">
-        <v>21254.29</v>
+        <v>4235.63</v>
       </c>
       <c r="O38" t="n">
-        <v>14169.53</v>
+        <v>2823.75</v>
       </c>
       <c r="P38" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R38" t="n">
-        <v>126.15</v>
+        <v>142.09</v>
       </c>
       <c r="S38" t="n">
-        <v>280.82</v>
+        <v>49.68</v>
       </c>
       <c r="T38" t="n">
-        <v>19.64</v>
+        <v>9.07</v>
       </c>
       <c r="U38" t="n">
-        <v>168.49</v>
+        <v>29.81</v>
       </c>
       <c r="V38" t="n">
-        <v>112.33</v>
+        <v>19.87</v>
       </c>
       <c r="W38" t="n">
-        <v>16.56</v>
+        <v>8.19</v>
       </c>
       <c r="X38" t="n">
-        <v>10.2</v>
+        <v>28.43</v>
       </c>
       <c r="Y38" t="n">
-        <v>126.15</v>
+        <v>142.09</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.897</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-12-16 14:53:42</t>
+          <t>2026-12-16 15:13:07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4615,7 +4715,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.235</t>
+          <t>Mouse session - Score: 0.052</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4643,7 +4743,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>14:53:42</t>
+          <t>15:13:07</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4652,58 +4752,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>15437</v>
+        <v>25212</v>
       </c>
       <c r="L39" t="n">
-        <v>15437</v>
+        <v>25212</v>
       </c>
       <c r="M39" t="n">
-        <v>21277.86</v>
+        <v>38027.72</v>
       </c>
       <c r="N39" t="n">
-        <v>12766.71</v>
+        <v>22816.63</v>
       </c>
       <c r="O39" t="n">
-        <v>8511.139999999999</v>
+        <v>15211.09</v>
       </c>
       <c r="P39" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="Q39" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R39" t="n">
-        <v>61.14</v>
+        <v>132.48</v>
       </c>
       <c r="S39" t="n">
-        <v>348.04</v>
+        <v>287.04</v>
       </c>
       <c r="T39" t="n">
-        <v>15.54</v>
+        <v>29.42</v>
       </c>
       <c r="U39" t="n">
-        <v>208.83</v>
+        <v>172.22</v>
       </c>
       <c r="V39" t="n">
-        <v>139.22</v>
+        <v>114.82</v>
       </c>
       <c r="W39" t="n">
-        <v>18.16</v>
+        <v>24.54</v>
       </c>
       <c r="X39" t="n">
-        <v>6.36</v>
+        <v>15.3</v>
       </c>
       <c r="Y39" t="n">
-        <v>61.14</v>
+        <v>132.48</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.235</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-12-16 14:26:33</t>
+          <t>2026-12-16 11:12:27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4713,7 +4813,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.168</t>
+          <t>Mouse session - Score: 0.055</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4741,7 +4841,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14:26:33</t>
+          <t>11:12:27</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4750,58 +4850,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>27579</v>
+        <v>25600</v>
       </c>
       <c r="L40" t="n">
-        <v>27579</v>
+        <v>25600</v>
       </c>
       <c r="M40" t="n">
-        <v>14983.85</v>
+        <v>30766.69</v>
       </c>
       <c r="N40" t="n">
-        <v>8990.309999999999</v>
+        <v>18460.01</v>
       </c>
       <c r="O40" t="n">
-        <v>5993.54</v>
+        <v>12306.68</v>
       </c>
       <c r="P40" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q40" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R40" t="n">
-        <v>174.93</v>
+        <v>126.28</v>
       </c>
       <c r="S40" t="n">
-        <v>85.66</v>
+        <v>243.64</v>
       </c>
       <c r="T40" t="n">
-        <v>43.12</v>
+        <v>38.07</v>
       </c>
       <c r="U40" t="n">
-        <v>51.39</v>
+        <v>146.19</v>
       </c>
       <c r="V40" t="n">
-        <v>34.26</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="W40" t="n">
-        <v>8.19</v>
+        <v>20.94</v>
       </c>
       <c r="X40" t="n">
-        <v>14.85</v>
+        <v>27.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.93</v>
+        <v>126.28</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.168</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-12-17 16:23:47</t>
+          <t>2026-12-17 17:04:26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4811,7 +4911,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.247</t>
+          <t>Mouse session - Score: 0.050</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4839,7 +4939,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16:23:47</t>
+          <t>17:04:26</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4848,58 +4948,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>25311</v>
+        <v>6486</v>
       </c>
       <c r="L41" t="n">
-        <v>25311</v>
+        <v>6486</v>
       </c>
       <c r="M41" t="n">
-        <v>9448.219999999999</v>
+        <v>21170.97</v>
       </c>
       <c r="N41" t="n">
-        <v>5668.93</v>
+        <v>12702.58</v>
       </c>
       <c r="O41" t="n">
-        <v>3779.29</v>
+        <v>8468.389999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>52.61</v>
+        <v>113.33</v>
       </c>
       <c r="S41" t="n">
-        <v>179.57</v>
+        <v>186.8</v>
       </c>
       <c r="T41" t="n">
-        <v>46.33</v>
+        <v>48.19</v>
       </c>
       <c r="U41" t="n">
-        <v>107.74</v>
+        <v>112.08</v>
       </c>
       <c r="V41" t="n">
-        <v>71.83</v>
+        <v>74.72</v>
       </c>
       <c r="W41" t="n">
-        <v>16.22</v>
+        <v>3.09</v>
       </c>
       <c r="X41" t="n">
-        <v>24.37</v>
+        <v>15.76</v>
       </c>
       <c r="Y41" t="n">
-        <v>52.61</v>
+        <v>113.33</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.247</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-12-17 12:29:57</t>
+          <t>2026-12-17 15:42:40</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4909,7 +5009,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.167</t>
+          <t>Mouse session - Score: 0.129</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4937,7 +5037,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12:29:57</t>
+          <t>15:42:40</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4946,58 +5046,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>25887</v>
+        <v>13431</v>
       </c>
       <c r="L42" t="n">
-        <v>25887</v>
+        <v>13431</v>
       </c>
       <c r="M42" t="n">
-        <v>20205.13</v>
+        <v>15759.49</v>
       </c>
       <c r="N42" t="n">
-        <v>12123.08</v>
+        <v>9455.690000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>8082.05</v>
+        <v>6303.79</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="Q42" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>44.83</v>
+        <v>50.14</v>
       </c>
       <c r="S42" t="n">
-        <v>450.68</v>
+        <v>314.33</v>
       </c>
       <c r="T42" t="n">
-        <v>14.03</v>
+        <v>30.68</v>
       </c>
       <c r="U42" t="n">
-        <v>270.41</v>
+        <v>188.6</v>
       </c>
       <c r="V42" t="n">
-        <v>180.27</v>
+        <v>125.73</v>
       </c>
       <c r="W42" t="n">
-        <v>26.77</v>
+        <v>21.41</v>
       </c>
       <c r="X42" t="n">
-        <v>10.03</v>
+        <v>22.46</v>
       </c>
       <c r="Y42" t="n">
-        <v>44.83</v>
+        <v>50.14</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.167</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-12-17 10:07:01</t>
+          <t>2026-12-17 17:59:05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5007,7 +5107,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.074</t>
+          <t>Mouse session - Score: 0.145</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5035,7 +5135,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10:07:01</t>
+          <t>17:59:05</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5044,58 +5144,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>7103</v>
+        <v>9060</v>
       </c>
       <c r="L43" t="n">
-        <v>7103</v>
+        <v>9060</v>
       </c>
       <c r="M43" t="n">
-        <v>32681.28</v>
+        <v>25956.34</v>
       </c>
       <c r="N43" t="n">
-        <v>19608.77</v>
+        <v>15573.8</v>
       </c>
       <c r="O43" t="n">
-        <v>13072.51</v>
+        <v>10382.53</v>
       </c>
       <c r="P43" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q43" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R43" t="n">
-        <v>151.07</v>
+        <v>140.6</v>
       </c>
       <c r="S43" t="n">
-        <v>216.33</v>
+        <v>184.62</v>
       </c>
       <c r="T43" t="n">
-        <v>10.52</v>
+        <v>44.48</v>
       </c>
       <c r="U43" t="n">
-        <v>129.8</v>
+        <v>110.77</v>
       </c>
       <c r="V43" t="n">
-        <v>86.53</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="W43" t="n">
-        <v>3.21</v>
+        <v>25.64</v>
       </c>
       <c r="X43" t="n">
-        <v>29.27</v>
+        <v>10.09</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.07</v>
+        <v>140.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.074</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-12-18 17:59:25</t>
+          <t>2026-12-18 11:43:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5105,7 +5205,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.197</t>
+          <t>Mouse session - Score: 0.069</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5133,7 +5233,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>17:59:25</t>
+          <t>11:43:13</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5142,58 +5242,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>27229</v>
+        <v>5811</v>
       </c>
       <c r="L44" t="n">
-        <v>27229</v>
+        <v>5811</v>
       </c>
       <c r="M44" t="n">
-        <v>18861.29</v>
+        <v>10094.57</v>
       </c>
       <c r="N44" t="n">
-        <v>11316.77</v>
+        <v>6056.74</v>
       </c>
       <c r="O44" t="n">
-        <v>7544.51</v>
+        <v>4037.83</v>
       </c>
       <c r="P44" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q44" t="n">
         <v>7</v>
       </c>
-      <c r="Q44" t="n">
-        <v>18</v>
-      </c>
       <c r="R44" t="n">
-        <v>45.2</v>
+        <v>130.61</v>
       </c>
       <c r="S44" t="n">
-        <v>417.25</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="T44" t="n">
-        <v>31</v>
+        <v>19.5</v>
       </c>
       <c r="U44" t="n">
-        <v>250.35</v>
+        <v>46.37</v>
       </c>
       <c r="V44" t="n">
-        <v>166.9</v>
+        <v>30.92</v>
       </c>
       <c r="W44" t="n">
-        <v>9.65</v>
+        <v>14.64</v>
       </c>
       <c r="X44" t="n">
-        <v>19.63</v>
+        <v>18.85</v>
       </c>
       <c r="Y44" t="n">
-        <v>45.2</v>
+        <v>130.61</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.197</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-12-18 10:28:58</t>
+          <t>2026-12-18 15:13:07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5203,7 +5303,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.190</t>
+          <t>Mouse session - Score: 0.245</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5231,7 +5331,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10:28:58</t>
+          <t>15:13:07</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5240,58 +5340,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>24872</v>
+        <v>11010</v>
       </c>
       <c r="L45" t="n">
-        <v>24872</v>
+        <v>11010</v>
       </c>
       <c r="M45" t="n">
-        <v>18391.43</v>
+        <v>38946.64</v>
       </c>
       <c r="N45" t="n">
-        <v>11034.86</v>
+        <v>23367.98</v>
       </c>
       <c r="O45" t="n">
-        <v>7356.57</v>
+        <v>15578.66</v>
       </c>
       <c r="P45" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q45" t="n">
         <v>19</v>
       </c>
-      <c r="Q45" t="n">
-        <v>17</v>
-      </c>
       <c r="R45" t="n">
-        <v>76.12</v>
+        <v>87.2</v>
       </c>
       <c r="S45" t="n">
-        <v>241.62</v>
+        <v>446.61</v>
       </c>
       <c r="T45" t="n">
-        <v>43.94</v>
+        <v>49.36</v>
       </c>
       <c r="U45" t="n">
-        <v>144.97</v>
+        <v>267.97</v>
       </c>
       <c r="V45" t="n">
-        <v>96.65000000000001</v>
+        <v>178.64</v>
       </c>
       <c r="W45" t="n">
-        <v>4.14</v>
+        <v>14.69</v>
       </c>
       <c r="X45" t="n">
-        <v>2.76</v>
+        <v>26</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.12</v>
+        <v>87.2</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.19</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-12-18 13:57:18</t>
+          <t>2026-12-18 14:12:35</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5301,7 +5401,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.186</t>
+          <t>Mouse session - Score: 0.212</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5329,7 +5429,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13:57:18</t>
+          <t>14:12:35</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5338,58 +5438,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>8448</v>
+        <v>18747</v>
       </c>
       <c r="L46" t="n">
-        <v>8448</v>
+        <v>18747</v>
       </c>
       <c r="M46" t="n">
-        <v>22156.04</v>
+        <v>22848.91</v>
       </c>
       <c r="N46" t="n">
-        <v>13293.63</v>
+        <v>13709.35</v>
       </c>
       <c r="O46" t="n">
-        <v>8862.42</v>
+        <v>9139.559999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R46" t="n">
-        <v>129.87</v>
+        <v>70.05</v>
       </c>
       <c r="S46" t="n">
-        <v>170.6</v>
+        <v>326.17</v>
       </c>
       <c r="T46" t="n">
-        <v>45.67</v>
+        <v>27.51</v>
       </c>
       <c r="U46" t="n">
-        <v>102.36</v>
+        <v>195.7</v>
       </c>
       <c r="V46" t="n">
-        <v>68.23999999999999</v>
+        <v>130.47</v>
       </c>
       <c r="W46" t="n">
-        <v>13.86</v>
+        <v>22.34</v>
       </c>
       <c r="X46" t="n">
-        <v>10.72</v>
+        <v>11.12</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.87</v>
+        <v>70.05</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.186</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-12-19 09:59:20</t>
+          <t>2026-12-21 13:19:03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5399,7 +5499,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.065</t>
+          <t>Mouse session - Score: 0.174</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5409,7 +5509,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20261219_000</t>
+          <t>MOUSE_20261221_000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5422,12 +5522,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>09:59:20</t>
+          <t>13:19:03</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5436,58 +5536,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>14383</v>
+        <v>20720</v>
       </c>
       <c r="L47" t="n">
-        <v>14383</v>
+        <v>20720</v>
       </c>
       <c r="M47" t="n">
-        <v>36342.51</v>
+        <v>38946.7</v>
       </c>
       <c r="N47" t="n">
-        <v>21805.5</v>
+        <v>23368.02</v>
       </c>
       <c r="O47" t="n">
-        <v>14537</v>
+        <v>15578.68</v>
       </c>
       <c r="P47" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q47" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R47" t="n">
-        <v>123.07</v>
+        <v>70.52</v>
       </c>
       <c r="S47" t="n">
-        <v>295.29</v>
+        <v>552.3200000000001</v>
       </c>
       <c r="T47" t="n">
-        <v>12.22</v>
+        <v>7.01</v>
       </c>
       <c r="U47" t="n">
-        <v>177.18</v>
+        <v>331.39</v>
       </c>
       <c r="V47" t="n">
-        <v>118.12</v>
+        <v>220.93</v>
       </c>
       <c r="W47" t="n">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="X47" t="n">
-        <v>11.92</v>
+        <v>29.06</v>
       </c>
       <c r="Y47" t="n">
-        <v>123.07</v>
+        <v>70.52</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.065</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-12-19 16:39:46</t>
+          <t>2026-12-21 14:16:12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5497,7 +5597,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.185</t>
+          <t>Mouse session - Score: 0.080</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5507,7 +5607,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20261219_001</t>
+          <t>MOUSE_20261221_001</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5520,12 +5620,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16:39:46</t>
+          <t>14:16:12</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5534,58 +5634,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>9147</v>
+        <v>29462</v>
       </c>
       <c r="L48" t="n">
-        <v>9147</v>
+        <v>29462</v>
       </c>
       <c r="M48" t="n">
-        <v>5303.74</v>
+        <v>35981.21</v>
       </c>
       <c r="N48" t="n">
-        <v>3182.24</v>
+        <v>21588.73</v>
       </c>
       <c r="O48" t="n">
-        <v>2121.5</v>
+        <v>14392.48</v>
       </c>
       <c r="P48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q48" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>130.14</v>
+        <v>170.42</v>
       </c>
       <c r="S48" t="n">
-        <v>40.75</v>
+        <v>211.14</v>
       </c>
       <c r="T48" t="n">
-        <v>13.51</v>
+        <v>5.81</v>
       </c>
       <c r="U48" t="n">
-        <v>24.45</v>
+        <v>126.68</v>
       </c>
       <c r="V48" t="n">
-        <v>16.3</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="W48" t="n">
-        <v>19.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="X48" t="n">
-        <v>7.96</v>
+        <v>3.6</v>
       </c>
       <c r="Y48" t="n">
-        <v>130.14</v>
+        <v>170.42</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.185</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-12-19 10:40:30</t>
+          <t>2026-12-21 09:29:28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5595,7 +5695,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.198</t>
+          <t>Mouse session - Score: 0.120</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5605,7 +5705,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20261219_002</t>
+          <t>MOUSE_20261221_002</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5618,12 +5718,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10:40:30</t>
+          <t>09:29:28</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5632,58 +5732,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>19934</v>
+        <v>9916</v>
       </c>
       <c r="L49" t="n">
-        <v>19934</v>
+        <v>9916</v>
       </c>
       <c r="M49" t="n">
-        <v>33961.62</v>
+        <v>6340.61</v>
       </c>
       <c r="N49" t="n">
-        <v>20376.97</v>
+        <v>3804.37</v>
       </c>
       <c r="O49" t="n">
-        <v>13584.65</v>
+        <v>2536.24</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="Q49" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R49" t="n">
-        <v>112.42</v>
+        <v>80.67</v>
       </c>
       <c r="S49" t="n">
-        <v>302.1</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="T49" t="n">
-        <v>32.89</v>
+        <v>27.35</v>
       </c>
       <c r="U49" t="n">
-        <v>181.26</v>
+        <v>47.16</v>
       </c>
       <c r="V49" t="n">
-        <v>120.84</v>
+        <v>31.44</v>
       </c>
       <c r="W49" t="n">
-        <v>10.33</v>
+        <v>6.36</v>
       </c>
       <c r="X49" t="n">
-        <v>17.65</v>
+        <v>3.16</v>
       </c>
       <c r="Y49" t="n">
-        <v>112.42</v>
+        <v>80.67</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.198</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-12-20 09:42:42</t>
+          <t>2026-12-22 17:31:25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5693,7 +5793,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.184</t>
+          <t>Mouse session - Score: 0.164</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5703,7 +5803,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20261220_000</t>
+          <t>MOUSE_20261222_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5716,12 +5816,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09:42:42</t>
+          <t>17:31:25</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5730,58 +5830,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>19054</v>
+        <v>17124</v>
       </c>
       <c r="L50" t="n">
-        <v>19054</v>
+        <v>17124</v>
       </c>
       <c r="M50" t="n">
-        <v>37443.4</v>
+        <v>14426.15</v>
       </c>
       <c r="N50" t="n">
-        <v>22466.04</v>
+        <v>8655.690000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>14977.36</v>
+        <v>5770.46</v>
       </c>
       <c r="P50" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R50" t="n">
-        <v>60.48</v>
+        <v>162.5</v>
       </c>
       <c r="S50" t="n">
-        <v>619.05</v>
+        <v>88.78</v>
       </c>
       <c r="T50" t="n">
-        <v>24.03</v>
+        <v>25.86</v>
       </c>
       <c r="U50" t="n">
-        <v>371.43</v>
+        <v>53.27</v>
       </c>
       <c r="V50" t="n">
-        <v>247.62</v>
+        <v>35.51</v>
       </c>
       <c r="W50" t="n">
-        <v>7.64</v>
+        <v>7.2</v>
       </c>
       <c r="X50" t="n">
-        <v>8.43</v>
+        <v>28.42</v>
       </c>
       <c r="Y50" t="n">
-        <v>60.48</v>
+        <v>162.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.184</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-12-20 10:03:42</t>
+          <t>2026-12-22 16:16:17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5791,7 +5891,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.117</t>
+          <t>Mouse session - Score: 0.154</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5801,7 +5901,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20261220_001</t>
+          <t>MOUSE_20261222_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5814,12 +5914,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10:03:42</t>
+          <t>16:16:17</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5828,58 +5928,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>19923</v>
+        <v>14658</v>
       </c>
       <c r="L51" t="n">
-        <v>19923</v>
+        <v>14658</v>
       </c>
       <c r="M51" t="n">
-        <v>12476.52</v>
+        <v>6414.29</v>
       </c>
       <c r="N51" t="n">
-        <v>7485.91</v>
+        <v>3848.57</v>
       </c>
       <c r="O51" t="n">
-        <v>4990.61</v>
+        <v>2565.71</v>
       </c>
       <c r="P51" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Q51" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="R51" t="n">
-        <v>56.47</v>
+        <v>37.2</v>
       </c>
       <c r="S51" t="n">
-        <v>220.94</v>
+        <v>172.42</v>
       </c>
       <c r="T51" t="n">
-        <v>14.41</v>
+        <v>16.6</v>
       </c>
       <c r="U51" t="n">
-        <v>132.57</v>
+        <v>103.45</v>
       </c>
       <c r="V51" t="n">
-        <v>88.38</v>
+        <v>68.97</v>
       </c>
       <c r="W51" t="n">
-        <v>16.3</v>
+        <v>19.87</v>
       </c>
       <c r="X51" t="n">
-        <v>23.9</v>
+        <v>28.82</v>
       </c>
       <c r="Y51" t="n">
-        <v>56.47</v>
+        <v>37.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.117</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-12-20 13:34:04</t>
+          <t>2026-12-22 10:49:58</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5889,7 +5989,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.068</t>
+          <t>Mouse session - Score: 0.141</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5899,7 +5999,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20261220_002</t>
+          <t>MOUSE_20261222_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5912,12 +6012,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>13:34:04</t>
+          <t>10:49:58</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5926,58 +6026,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>26813</v>
+        <v>12711</v>
       </c>
       <c r="L52" t="n">
-        <v>26813</v>
+        <v>12711</v>
       </c>
       <c r="M52" t="n">
-        <v>22737.05</v>
+        <v>36725.81</v>
       </c>
       <c r="N52" t="n">
-        <v>13642.23</v>
+        <v>22035.49</v>
       </c>
       <c r="O52" t="n">
-        <v>9094.82</v>
+        <v>14690.32</v>
       </c>
       <c r="P52" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Q52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R52" t="n">
-        <v>114.09</v>
+        <v>110.15</v>
       </c>
       <c r="S52" t="n">
-        <v>199.3</v>
+        <v>333.4</v>
       </c>
       <c r="T52" t="n">
-        <v>30.01</v>
+        <v>22.61</v>
       </c>
       <c r="U52" t="n">
-        <v>119.58</v>
+        <v>200.04</v>
       </c>
       <c r="V52" t="n">
-        <v>79.72</v>
+        <v>133.36</v>
       </c>
       <c r="W52" t="n">
-        <v>13.85</v>
+        <v>27.09</v>
       </c>
       <c r="X52" t="n">
-        <v>24.31</v>
+        <v>20.61</v>
       </c>
       <c r="Y52" t="n">
-        <v>114.09</v>
+        <v>110.15</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.068</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-12-21 12:15:16</t>
+          <t>2026-12-23 17:06:35</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5987,7 +6087,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.074</t>
+          <t>Mouse session - Score: 0.222</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5997,7 +6097,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20261221_000</t>
+          <t>MOUSE_20261223_000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6010,12 +6110,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>12:15:16</t>
+          <t>17:06:35</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6024,58 +6124,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>12915</v>
+        <v>8199</v>
       </c>
       <c r="L53" t="n">
-        <v>12915</v>
+        <v>8199</v>
       </c>
       <c r="M53" t="n">
-        <v>29028.54</v>
+        <v>22037.23</v>
       </c>
       <c r="N53" t="n">
-        <v>17417.12</v>
+        <v>13222.34</v>
       </c>
       <c r="O53" t="n">
-        <v>11611.42</v>
+        <v>8814.889999999999</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="R53" t="n">
-        <v>66.98</v>
+        <v>179.36</v>
       </c>
       <c r="S53" t="n">
-        <v>433.36</v>
+        <v>122.86</v>
       </c>
       <c r="T53" t="n">
-        <v>36.39</v>
+        <v>40.81</v>
       </c>
       <c r="U53" t="n">
-        <v>260.02</v>
+        <v>73.72</v>
       </c>
       <c r="V53" t="n">
-        <v>173.34</v>
+        <v>49.15</v>
       </c>
       <c r="W53" t="n">
-        <v>2.87</v>
+        <v>5.58</v>
       </c>
       <c r="X53" t="n">
-        <v>11.62</v>
+        <v>12.73</v>
       </c>
       <c r="Y53" t="n">
-        <v>66.98</v>
+        <v>179.36</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.074</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-12-21 11:36:05</t>
+          <t>2026-12-23 13:26:31</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6085,7 +6185,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.219</t>
+          <t>Mouse session - Score: 0.070</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6095,7 +6195,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20261221_001</t>
+          <t>MOUSE_20261223_001</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6108,12 +6208,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11:36:05</t>
+          <t>13:26:31</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6122,58 +6222,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>29523</v>
+        <v>18619</v>
       </c>
       <c r="L54" t="n">
-        <v>29523</v>
+        <v>18619</v>
       </c>
       <c r="M54" t="n">
-        <v>34534.77</v>
+        <v>20868.04</v>
       </c>
       <c r="N54" t="n">
-        <v>20720.86</v>
+        <v>12520.82</v>
       </c>
       <c r="O54" t="n">
-        <v>13813.91</v>
+        <v>8347.209999999999</v>
       </c>
       <c r="P54" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q54" t="n">
         <v>13</v>
       </c>
       <c r="R54" t="n">
-        <v>127.76</v>
+        <v>102.26</v>
       </c>
       <c r="S54" t="n">
-        <v>270.31</v>
+        <v>204.06</v>
       </c>
       <c r="T54" t="n">
-        <v>28.2</v>
+        <v>44.41</v>
       </c>
       <c r="U54" t="n">
-        <v>162.19</v>
+        <v>122.44</v>
       </c>
       <c r="V54" t="n">
-        <v>108.12</v>
+        <v>81.63</v>
       </c>
       <c r="W54" t="n">
-        <v>20.19</v>
+        <v>26.52</v>
       </c>
       <c r="X54" t="n">
-        <v>4.63</v>
+        <v>24.24</v>
       </c>
       <c r="Y54" t="n">
-        <v>127.76</v>
+        <v>102.26</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.219</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-12-21 15:35:42</t>
+          <t>2026-12-23 15:09:46</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6183,7 +6283,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.140</t>
+          <t>Mouse session - Score: 0.111</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6193,7 +6293,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20261221_002</t>
+          <t>MOUSE_20261223_002</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6206,12 +6306,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>15:35:42</t>
+          <t>15:09:46</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6220,58 +6320,58 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>15886</v>
+        <v>14271</v>
       </c>
       <c r="L55" t="n">
-        <v>15886</v>
+        <v>14271</v>
       </c>
       <c r="M55" t="n">
-        <v>23180.38</v>
+        <v>33274.05</v>
       </c>
       <c r="N55" t="n">
-        <v>13908.23</v>
+        <v>19964.43</v>
       </c>
       <c r="O55" t="n">
-        <v>9272.15</v>
+        <v>13309.62</v>
       </c>
       <c r="P55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q55" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R55" t="n">
-        <v>135.59</v>
+        <v>153.75</v>
       </c>
       <c r="S55" t="n">
-        <v>170.96</v>
+        <v>216.42</v>
       </c>
       <c r="T55" t="n">
-        <v>26.64</v>
+        <v>30.35</v>
       </c>
       <c r="U55" t="n">
-        <v>102.57</v>
+        <v>129.85</v>
       </c>
       <c r="V55" t="n">
-        <v>68.38</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="W55" t="n">
-        <v>5.26</v>
+        <v>21.16</v>
       </c>
       <c r="X55" t="n">
-        <v>5.31</v>
+        <v>13.66</v>
       </c>
       <c r="Y55" t="n">
-        <v>135.59</v>
+        <v>153.75</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.14</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-12-22 11:13:02</t>
+          <t>2026-12-24 15:35:41</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6281,7 +6381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.193</t>
+          <t>Mouse session - Score: 0.230</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6291,7 +6391,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MOUSE_20261222_000</t>
+          <t>MOUSE_20261224_000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6304,12 +6404,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11:13:02</t>
+          <t>15:35:41</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6318,58 +6418,58 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>14132</v>
+        <v>17598</v>
       </c>
       <c r="L56" t="n">
-        <v>14132</v>
+        <v>17598</v>
       </c>
       <c r="M56" t="n">
-        <v>37235.94</v>
+        <v>16977.23</v>
       </c>
       <c r="N56" t="n">
-        <v>22341.56</v>
+        <v>10186.34</v>
       </c>
       <c r="O56" t="n">
-        <v>14894.37</v>
+        <v>6790.89</v>
       </c>
       <c r="P56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R56" t="n">
-        <v>123.89</v>
+        <v>178.55</v>
       </c>
       <c r="S56" t="n">
-        <v>300.56</v>
+        <v>95.08</v>
       </c>
       <c r="T56" t="n">
-        <v>18.37</v>
+        <v>48.76</v>
       </c>
       <c r="U56" t="n">
-        <v>180.33</v>
+        <v>57.05</v>
       </c>
       <c r="V56" t="n">
-        <v>120.22</v>
+        <v>38.03</v>
       </c>
       <c r="W56" t="n">
-        <v>15.48</v>
+        <v>4.53</v>
       </c>
       <c r="X56" t="n">
-        <v>24.06</v>
+        <v>15.62</v>
       </c>
       <c r="Y56" t="n">
-        <v>123.89</v>
+        <v>178.55</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.193</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-12-22 14:22:20</t>
+          <t>2026-12-24 14:43:36</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6379,7 +6479,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.054</t>
+          <t>Mouse session - Score: 0.137</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6389,7 +6489,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MOUSE_20261222_001</t>
+          <t>MOUSE_20261224_001</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6402,12 +6502,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14:22:20</t>
+          <t>14:43:36</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6416,58 +6516,58 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>8388</v>
+        <v>7156</v>
       </c>
       <c r="L57" t="n">
-        <v>8388</v>
+        <v>7156</v>
       </c>
       <c r="M57" t="n">
-        <v>11338.64</v>
+        <v>33759.72</v>
       </c>
       <c r="N57" t="n">
-        <v>6803.19</v>
+        <v>20255.83</v>
       </c>
       <c r="O57" t="n">
-        <v>4535.46</v>
+        <v>13503.89</v>
       </c>
       <c r="P57" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>139.36</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="S57" t="n">
-        <v>81.36</v>
+        <v>356.34</v>
       </c>
       <c r="T57" t="n">
-        <v>7.92</v>
+        <v>31.84</v>
       </c>
       <c r="U57" t="n">
-        <v>48.82</v>
+        <v>213.8</v>
       </c>
       <c r="V57" t="n">
-        <v>32.54</v>
+        <v>142.54</v>
       </c>
       <c r="W57" t="n">
-        <v>2.6</v>
+        <v>15.61</v>
       </c>
       <c r="X57" t="n">
-        <v>17.35</v>
+        <v>24.78</v>
       </c>
       <c r="Y57" t="n">
-        <v>139.36</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.054</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-12-22 16:55:51</t>
+          <t>2026-12-24 17:01:19</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6477,7 +6577,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.232</t>
+          <t>Mouse session - Score: 0.106</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6487,7 +6587,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MOUSE_20261222_002</t>
+          <t>MOUSE_20261224_002</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6500,12 +6600,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>16:55:51</t>
+          <t>17:01:19</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6514,58 +6614,58 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>6880</v>
+        <v>29089</v>
       </c>
       <c r="L58" t="n">
-        <v>6880</v>
+        <v>29089</v>
       </c>
       <c r="M58" t="n">
-        <v>39399.44</v>
+        <v>19203.44</v>
       </c>
       <c r="N58" t="n">
-        <v>23639.67</v>
+        <v>11522.06</v>
       </c>
       <c r="O58" t="n">
-        <v>15759.78</v>
+        <v>7681.37</v>
       </c>
       <c r="P58" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R58" t="n">
-        <v>41.77</v>
+        <v>77.81</v>
       </c>
       <c r="S58" t="n">
-        <v>943.17</v>
+        <v>246.8</v>
       </c>
       <c r="T58" t="n">
-        <v>31.39</v>
+        <v>19.25</v>
       </c>
       <c r="U58" t="n">
-        <v>565.9</v>
+        <v>148.08</v>
       </c>
       <c r="V58" t="n">
-        <v>377.27</v>
+        <v>98.72</v>
       </c>
       <c r="W58" t="n">
-        <v>18.91</v>
+        <v>20.56</v>
       </c>
       <c r="X58" t="n">
-        <v>27.97</v>
+        <v>26.9</v>
       </c>
       <c r="Y58" t="n">
-        <v>41.77</v>
+        <v>77.81</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.232</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-12-23 17:04:32</t>
+          <t>2026-12-25 09:54:54</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6575,7 +6675,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.831</t>
+          <t>Mouse session - Score: 0.066</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6585,25 +6685,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MOUSE_20261223_000</t>
+          <t>MOUSE_20261225_000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>17:04:32</t>
+          <t>09:54:54</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -6612,58 +6712,58 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>20512</v>
+        <v>16463</v>
       </c>
       <c r="L59" t="n">
-        <v>20512</v>
+        <v>16463</v>
       </c>
       <c r="M59" t="n">
-        <v>20699.48</v>
+        <v>39430.5</v>
       </c>
       <c r="N59" t="n">
-        <v>12419.69</v>
+        <v>23658.3</v>
       </c>
       <c r="O59" t="n">
-        <v>8279.790000000001</v>
+        <v>15772.2</v>
       </c>
       <c r="P59" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Q59" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R59" t="n">
-        <v>142.66</v>
+        <v>66.92</v>
       </c>
       <c r="S59" t="n">
-        <v>145.1</v>
+        <v>589.2</v>
       </c>
       <c r="T59" t="n">
-        <v>6.31</v>
+        <v>41.06</v>
       </c>
       <c r="U59" t="n">
-        <v>87.06</v>
+        <v>353.52</v>
       </c>
       <c r="V59" t="n">
-        <v>58.04</v>
+        <v>235.68</v>
       </c>
       <c r="W59" t="n">
-        <v>27.68</v>
+        <v>4.26</v>
       </c>
       <c r="X59" t="n">
-        <v>3.3</v>
+        <v>18.86</v>
       </c>
       <c r="Y59" t="n">
-        <v>142.66</v>
+        <v>66.92</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.831</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-12-23 11:39:09</t>
+          <t>2026-12-25 09:10:57</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6673,7 +6773,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.232</t>
+          <t>Mouse session - Score: 0.210</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6683,7 +6783,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MOUSE_20261223_001</t>
+          <t>MOUSE_20261225_001</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6696,12 +6796,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11:39:09</t>
+          <t>09:10:57</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6710,58 +6810,58 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>11425</v>
+        <v>17880</v>
       </c>
       <c r="L60" t="n">
-        <v>11425</v>
+        <v>17880</v>
       </c>
       <c r="M60" t="n">
-        <v>39670.26</v>
+        <v>9891.959999999999</v>
       </c>
       <c r="N60" t="n">
-        <v>23802.16</v>
+        <v>5935.17</v>
       </c>
       <c r="O60" t="n">
-        <v>15868.11</v>
+        <v>3956.78</v>
       </c>
       <c r="P60" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R60" t="n">
-        <v>155.8</v>
+        <v>46.65</v>
       </c>
       <c r="S60" t="n">
-        <v>254.62</v>
+        <v>212.04</v>
       </c>
       <c r="T60" t="n">
-        <v>27.43</v>
+        <v>16.88</v>
       </c>
       <c r="U60" t="n">
-        <v>152.77</v>
+        <v>127.22</v>
       </c>
       <c r="V60" t="n">
-        <v>101.85</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="W60" t="n">
-        <v>22.23</v>
+        <v>17.67</v>
       </c>
       <c r="X60" t="n">
-        <v>9.710000000000001</v>
+        <v>22.87</v>
       </c>
       <c r="Y60" t="n">
-        <v>155.8</v>
+        <v>46.65</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.232</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-12-23 14:56:36</t>
+          <t>2026-12-25 17:09:23</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6771,7 +6871,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.128</t>
+          <t>Mouse session - Score: 0.850</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6781,25 +6881,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MOUSE_20261223_002</t>
+          <t>MOUSE_20261225_002</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>14:56:36</t>
+          <t>17:09:23</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6808,58 +6908,58 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>22713</v>
+        <v>6146</v>
       </c>
       <c r="L61" t="n">
-        <v>22713</v>
+        <v>6146</v>
       </c>
       <c r="M61" t="n">
-        <v>37609.5</v>
+        <v>6509.11</v>
       </c>
       <c r="N61" t="n">
-        <v>22565.7</v>
+        <v>3905.47</v>
       </c>
       <c r="O61" t="n">
-        <v>15043.8</v>
+        <v>2603.65</v>
       </c>
       <c r="P61" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R61" t="n">
-        <v>127.37</v>
+        <v>106.44</v>
       </c>
       <c r="S61" t="n">
-        <v>295.27</v>
+        <v>61.15</v>
       </c>
       <c r="T61" t="n">
-        <v>33.16</v>
+        <v>10.68</v>
       </c>
       <c r="U61" t="n">
-        <v>177.16</v>
+        <v>36.69</v>
       </c>
       <c r="V61" t="n">
-        <v>118.11</v>
+        <v>24.46</v>
       </c>
       <c r="W61" t="n">
-        <v>14.33</v>
+        <v>12.57</v>
       </c>
       <c r="X61" t="n">
-        <v>25.41</v>
+        <v>24.32</v>
       </c>
       <c r="Y61" t="n">
-        <v>127.37</v>
+        <v>106.44</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.128</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-12-24 11:33:26</t>
+          <t>2026-12-27 15:33:42</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6869,7 +6969,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.238</t>
+          <t>Mouse session - Score: 0.157</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6879,7 +6979,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MOUSE_20261224_000</t>
+          <t>MOUSE_20261227_000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6892,12 +6992,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>11:33:26</t>
+          <t>15:33:42</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6906,58 +7006,58 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>24007</v>
+        <v>26260</v>
       </c>
       <c r="L62" t="n">
-        <v>24007</v>
+        <v>26260</v>
       </c>
       <c r="M62" t="n">
-        <v>17029.17</v>
+        <v>28986.9</v>
       </c>
       <c r="N62" t="n">
-        <v>10217.5</v>
+        <v>17392.14</v>
       </c>
       <c r="O62" t="n">
-        <v>6811.67</v>
+        <v>11594.76</v>
       </c>
       <c r="P62" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q62" t="n">
         <v>17</v>
       </c>
-      <c r="Q62" t="n">
-        <v>7</v>
-      </c>
       <c r="R62" t="n">
-        <v>107.32</v>
+        <v>135.78</v>
       </c>
       <c r="S62" t="n">
-        <v>158.68</v>
+        <v>213.49</v>
       </c>
       <c r="T62" t="n">
-        <v>27.63</v>
+        <v>33.3</v>
       </c>
       <c r="U62" t="n">
-        <v>95.20999999999999</v>
+        <v>128.09</v>
       </c>
       <c r="V62" t="n">
-        <v>63.47</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="W62" t="n">
-        <v>16.8</v>
+        <v>21.61</v>
       </c>
       <c r="X62" t="n">
-        <v>16.95</v>
+        <v>23.33</v>
       </c>
       <c r="Y62" t="n">
-        <v>107.32</v>
+        <v>135.78</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.238</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-12-24 16:43:12</t>
+          <t>2026-12-27 15:51:29</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6967,7 +7067,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.174</t>
+          <t>Mouse session - Score: 0.170</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6977,7 +7077,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MOUSE_20261224_001</t>
+          <t>MOUSE_20261227_001</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6990,12 +7090,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>16:43:12</t>
+          <t>15:51:29</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7004,58 +7104,58 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>15137</v>
+        <v>6124</v>
       </c>
       <c r="L63" t="n">
-        <v>15137</v>
+        <v>6124</v>
       </c>
       <c r="M63" t="n">
-        <v>5461.48</v>
+        <v>37598.53</v>
       </c>
       <c r="N63" t="n">
-        <v>3276.89</v>
+        <v>22559.12</v>
       </c>
       <c r="O63" t="n">
-        <v>2184.59</v>
+        <v>15039.41</v>
       </c>
       <c r="P63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q63" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R63" t="n">
-        <v>97.39</v>
+        <v>120.68</v>
       </c>
       <c r="S63" t="n">
-        <v>56.08</v>
+        <v>311.56</v>
       </c>
       <c r="T63" t="n">
-        <v>18.32</v>
+        <v>10.2</v>
       </c>
       <c r="U63" t="n">
-        <v>33.65</v>
+        <v>186.93</v>
       </c>
       <c r="V63" t="n">
-        <v>22.43</v>
+        <v>124.62</v>
       </c>
       <c r="W63" t="n">
-        <v>8.98</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="X63" t="n">
-        <v>24.15</v>
+        <v>7.87</v>
       </c>
       <c r="Y63" t="n">
-        <v>97.39</v>
+        <v>120.68</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.174</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-12-24 14:33:44</t>
+          <t>2026-12-27 12:24:30</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7065,7 +7165,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.167</t>
+          <t>Mouse session - Score: 0.835</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7075,25 +7175,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MOUSE_20261224_002</t>
+          <t>MOUSE_20261227_002</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>14:33:44</t>
+          <t>12:24:30</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7102,58 +7202,58 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>14311</v>
+        <v>29532</v>
       </c>
       <c r="L64" t="n">
-        <v>14311</v>
+        <v>29532</v>
       </c>
       <c r="M64" t="n">
-        <v>12700.73</v>
+        <v>19520.88</v>
       </c>
       <c r="N64" t="n">
-        <v>7620.44</v>
+        <v>11712.53</v>
       </c>
       <c r="O64" t="n">
-        <v>5080.29</v>
+        <v>7808.35</v>
       </c>
       <c r="P64" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R64" t="n">
-        <v>111.57</v>
+        <v>125.96</v>
       </c>
       <c r="S64" t="n">
-        <v>113.84</v>
+        <v>154.98</v>
       </c>
       <c r="T64" t="n">
-        <v>45.47</v>
+        <v>48.23</v>
       </c>
       <c r="U64" t="n">
-        <v>68.3</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="V64" t="n">
-        <v>45.54</v>
+        <v>61.99</v>
       </c>
       <c r="W64" t="n">
-        <v>17.23</v>
+        <v>27.79</v>
       </c>
       <c r="X64" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="Y64" t="n">
-        <v>111.57</v>
+        <v>125.96</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.167</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-12-25 09:54:01</t>
+          <t>2026-12-28 14:36:52</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7163,7 +7263,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.065</t>
+          <t>Mouse session - Score: 0.147</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -7173,7 +7273,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MOUSE_20261225_000</t>
+          <t>MOUSE_20261228_000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7186,12 +7286,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>09:54:01</t>
+          <t>14:36:52</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7200,58 +7300,58 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>28519</v>
+        <v>17992</v>
       </c>
       <c r="L65" t="n">
-        <v>28519</v>
+        <v>17992</v>
       </c>
       <c r="M65" t="n">
-        <v>7875.34</v>
+        <v>10504.82</v>
       </c>
       <c r="N65" t="n">
-        <v>4725.2</v>
+        <v>6302.89</v>
       </c>
       <c r="O65" t="n">
-        <v>3150.14</v>
+        <v>4201.93</v>
       </c>
       <c r="P65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q65" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R65" t="n">
-        <v>167.15</v>
+        <v>163.24</v>
       </c>
       <c r="S65" t="n">
-        <v>47.11</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="T65" t="n">
-        <v>25.28</v>
+        <v>25.26</v>
       </c>
       <c r="U65" t="n">
-        <v>28.27</v>
+        <v>38.61</v>
       </c>
       <c r="V65" t="n">
-        <v>18.85</v>
+        <v>25.74</v>
       </c>
       <c r="W65" t="n">
-        <v>22.68</v>
+        <v>3.54</v>
       </c>
       <c r="X65" t="n">
-        <v>16.64</v>
+        <v>5.29</v>
       </c>
       <c r="Y65" t="n">
-        <v>167.15</v>
+        <v>163.24</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.065</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-12-25 14:03:46</t>
+          <t>2026-12-28 12:49:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7261,7 +7361,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.202</t>
+          <t>Mouse session - Score: 0.053</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7271,7 +7371,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MOUSE_20261225_001</t>
+          <t>MOUSE_20261228_001</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7284,12 +7384,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>14:03:46</t>
+          <t>12:49:32</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7298,58 +7398,58 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>29071</v>
+        <v>17241</v>
       </c>
       <c r="L66" t="n">
-        <v>29071</v>
+        <v>17241</v>
       </c>
       <c r="M66" t="n">
-        <v>33302.93</v>
+        <v>20998.58</v>
       </c>
       <c r="N66" t="n">
-        <v>19981.76</v>
+        <v>12599.15</v>
       </c>
       <c r="O66" t="n">
-        <v>13321.17</v>
+        <v>8399.43</v>
       </c>
       <c r="P66" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R66" t="n">
-        <v>174.69</v>
+        <v>85.06</v>
       </c>
       <c r="S66" t="n">
-        <v>190.64</v>
+        <v>246.85</v>
       </c>
       <c r="T66" t="n">
-        <v>20.18</v>
+        <v>27.06</v>
       </c>
       <c r="U66" t="n">
-        <v>114.38</v>
+        <v>148.11</v>
       </c>
       <c r="V66" t="n">
-        <v>76.26000000000001</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="W66" t="n">
-        <v>8.98</v>
+        <v>18.95</v>
       </c>
       <c r="X66" t="n">
-        <v>3.05</v>
+        <v>21.75</v>
       </c>
       <c r="Y66" t="n">
-        <v>174.69</v>
+        <v>85.06</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.202</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-12-25 12:05:58</t>
+          <t>2026-12-28 11:51:48</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7359,7 +7459,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.197</t>
+          <t>Mouse session - Score: 0.180</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7369,7 +7469,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MOUSE_20261225_002</t>
+          <t>MOUSE_20261228_002</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7382,12 +7482,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>12:05:58</t>
+          <t>11:51:48</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7396,52 +7496,52 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>19929</v>
+        <v>13703</v>
       </c>
       <c r="L67" t="n">
-        <v>19929</v>
+        <v>13703</v>
       </c>
       <c r="M67" t="n">
-        <v>13703.43</v>
+        <v>6506.27</v>
       </c>
       <c r="N67" t="n">
-        <v>8222.059999999999</v>
+        <v>3903.76</v>
       </c>
       <c r="O67" t="n">
-        <v>5481.37</v>
+        <v>2602.51</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="Q67" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>30.17</v>
+        <v>53.46</v>
       </c>
       <c r="S67" t="n">
-        <v>454.2</v>
+        <v>121.71</v>
       </c>
       <c r="T67" t="n">
-        <v>30.19</v>
+        <v>35.26</v>
       </c>
       <c r="U67" t="n">
-        <v>272.52</v>
+        <v>73.03</v>
       </c>
       <c r="V67" t="n">
-        <v>181.68</v>
+        <v>48.68</v>
       </c>
       <c r="W67" t="n">
-        <v>7.12</v>
+        <v>4.07</v>
       </c>
       <c r="X67" t="n">
-        <v>4.44</v>
+        <v>21.95</v>
       </c>
       <c r="Y67" t="n">
-        <v>30.17</v>
+        <v>53.46</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.197</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -7455,7 +7555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7518,20 +7618,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-12-01 12:15:00</t>
+          <t>2026-12-01 08:32:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-12-01 16:18:04</t>
+          <t>2026-12-01 17:17:44</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14584</v>
+        <v>31544</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04:03:00</t>
+          <t>08:45:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7548,7 +7648,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20261201_01</t>
+          <t>BROWSER_20261202_00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7558,25 +7658,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-12-01 08:12:00</t>
+          <t>2026-12-02 10:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-12-01 12:34:43</t>
+          <t>2026-12-02 18:29:57</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15763</v>
+        <v>27897</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04:22:00</t>
+          <t>07:44:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7588,7 +7688,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20261202_00</t>
+          <t>BROWSER_20261203_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7598,25 +7698,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-12-02 13:17:00</t>
+          <t>2026-12-03 09:33:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-12-02 17:21:21</t>
+          <t>2026-12-03 14:00:28</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14661</v>
+        <v>16048</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>04:04:00</t>
+          <t>04:27:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7628,7 +7728,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20261202_01</t>
+          <t>BROWSER_20261203_01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7638,25 +7738,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-12-02 12:48:00</t>
+          <t>2026-12-03 11:09:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-12-02 16:24:20</t>
+          <t>2026-12-03 14:44:33</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12980</v>
+        <v>12933</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03:36:00</t>
+          <t>03:35:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7668,7 +7768,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20261203_00</t>
+          <t>BROWSER_20261204_00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7678,25 +7778,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-12-03 10:00:00</t>
+          <t>2026-12-04 15:16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-12-03 17:15:10</t>
+          <t>2026-12-04 22:37:54</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26110</v>
+        <v>26514</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>07:15:00</t>
+          <t>07:21:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7708,7 +7808,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20261204_00</t>
+          <t>BROWSER_20261207_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7718,25 +7818,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-12-04 13:18:00</t>
+          <t>2026-12-07 11:49:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-12-04 21:16:31</t>
+          <t>2026-12-07 16:01:21</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28711</v>
+        <v>15141</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>07:58:00</t>
+          <t>04:12:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7748,7 +7848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20261207_00</t>
+          <t>BROWSER_20261207_01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7758,20 +7858,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-12-07 09:03:00</t>
+          <t>2026-12-07 13:33:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-12-07 13:27:11</t>
+          <t>2026-12-07 17:27:21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15851</v>
+        <v>14061</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>04:24:00</t>
+          <t>03:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7788,7 +7888,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20261207_01</t>
+          <t>BROWSER_20261208_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7798,25 +7898,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-12-07 10:24:00</t>
+          <t>2026-12-08 08:57:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-12-07 14:03:34</t>
+          <t>2026-12-08 17:56:53</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13174</v>
+        <v>32393</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>03:39:00</t>
+          <t>08:59:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-12-07</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7828,7 +7928,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20261208_00</t>
+          <t>BROWSER_20261209_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7838,25 +7938,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-12-08 08:55:00</t>
+          <t>2026-12-09 11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-12-08 16:24:51</t>
+          <t>2026-12-09 14:48:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26991</v>
+        <v>13680</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07:29:00</t>
+          <t>03:48:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7868,7 +7968,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20261209_00</t>
+          <t>BROWSER_20261209_01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7878,20 +7978,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-12-09 12:33:00</t>
+          <t>2026-12-09 14:12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-12-09 16:38:51</t>
+          <t>2026-12-09 18:27:24</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14751</v>
+        <v>15324</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>04:05:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7908,7 +8008,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20261209_01</t>
+          <t>BROWSER_20261210_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7918,25 +8018,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-12-09 11:06:00</t>
+          <t>2026-12-10 08:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-12-09 15:19:02</t>
+          <t>2026-12-10 13:09:12</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15182</v>
+        <v>15852</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>04:13:00</t>
+          <t>04:24:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7948,7 +8048,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20261210_00</t>
+          <t>BROWSER_20261210_01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7958,20 +8058,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-12-10 13:46:00</t>
+          <t>2026-12-10 10:31:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-12-10 20:50:45</t>
+          <t>2026-12-10 14:03:40</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25485</v>
+        <v>12760</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>07:04:00</t>
+          <t>03:32:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7998,20 +8098,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-12-11 13:17:00</t>
+          <t>2026-12-11 10:37:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-12-11 16:55:19</t>
+          <t>2026-12-11 18:50:53</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13099</v>
+        <v>29633</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03:38:00</t>
+          <t>08:13:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -8028,7 +8128,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20261211_01</t>
+          <t>BROWSER_20261214_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8038,25 +8138,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-12-11 09:14:00</t>
+          <t>2026-12-14 10:29:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-12-11 13:00:18</t>
+          <t>2026-12-14 18:06:39</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13578</v>
+        <v>27459</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>03:46:00</t>
+          <t>07:37:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -8068,7 +8168,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20261214_00</t>
+          <t>BROWSER_20261215_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8078,25 +8178,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-12-14 11:57:00</t>
+          <t>2026-12-15 13:13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-12-14 20:43:32</t>
+          <t>2026-12-15 20:22:34</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31592</v>
+        <v>25774</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08:46:00</t>
+          <t>07:09:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -8108,7 +8208,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20261215_00</t>
+          <t>BROWSER_20261216_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8118,25 +8218,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-12-15 13:02:00</t>
+          <t>2026-12-16 13:14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-12-15 21:31:05</t>
+          <t>2026-12-16 21:12:27</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30545</v>
+        <v>28707</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08:29:00</t>
+          <t>07:58:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -8148,7 +8248,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20261216_00</t>
+          <t>BROWSER_20261217_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8158,25 +8258,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-12-16 13:49:00</t>
+          <t>2026-12-17 14:02:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-12-16 18:16:31</t>
+          <t>2026-12-17 22:29:38</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16051</v>
+        <v>30458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>04:27:00</t>
+          <t>08:27:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -8188,7 +8288,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20261216_01</t>
+          <t>BROWSER_20261218_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8198,25 +8298,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-12-16 12:44:00</t>
+          <t>2026-12-18 12:39:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-12-16 16:53:15</t>
+          <t>2026-12-18 16:38:21</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14955</v>
+        <v>14361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>04:09:00</t>
+          <t>03:59:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -8228,7 +8328,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20261217_00</t>
+          <t>BROWSER_20261218_01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8238,25 +8338,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-12-17 14:55:00</t>
+          <t>2026-12-18 08:14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-12-17 18:29:31</t>
+          <t>2026-12-18 11:49:45</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12871</v>
+        <v>12945</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>03:34:00</t>
+          <t>03:35:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -8268,7 +8368,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20261217_01</t>
+          <t>BROWSER_20261221_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -8278,25 +8378,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-12-17 13:09:00</t>
+          <t>2026-12-21 15:47:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-12-17 16:43:54</t>
+          <t>2026-12-21 19:25:49</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12894</v>
+        <v>13129</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>03:34:00</t>
+          <t>03:38:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -8308,7 +8408,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20261218_00</t>
+          <t>BROWSER_20261221_01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8318,25 +8418,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-12-18 15:34:00</t>
+          <t>2026-12-21 10:10:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-12-18 23:35:28</t>
+          <t>2026-12-21 14:13:26</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28888</v>
+        <v>14606</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>04:03:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -8348,7 +8448,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20261221_00</t>
+          <t>BROWSER_20261222_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8358,25 +8458,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-12-21 10:12:00</t>
+          <t>2026-12-22 08:54:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-12-21 17:28:05</t>
+          <t>2026-12-22 17:12:52</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26165</v>
+        <v>29932</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>07:16:00</t>
+          <t>08:18:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -8388,7 +8488,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20261222_00</t>
+          <t>BROWSER_20261223_00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8398,25 +8498,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-12-22 09:23:00</t>
+          <t>2026-12-23 08:19:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-12-22 16:51:06</t>
+          <t>2026-12-23 11:57:34</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26886</v>
+        <v>13114</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>07:28:00</t>
+          <t>03:38:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -8428,7 +8528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BROWSER_20261223_00</t>
+          <t>BROWSER_20261223_01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8438,20 +8538,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-12-23 11:30:00</t>
+          <t>2026-12-23 14:13:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-12-23 15:12:56</t>
+          <t>2026-12-23 18:18:19</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13376</v>
+        <v>14719</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>03:42:00</t>
+          <t>04:05:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8468,7 +8568,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BROWSER_20261223_01</t>
+          <t>BROWSER_20261224_00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8478,25 +8578,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-12-23 11:15:00</t>
+          <t>2026-12-24 10:16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-12-23 15:12:22</t>
+          <t>2026-12-24 13:58:51</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14242</v>
+        <v>13371</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>03:57:00</t>
+          <t>03:42:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -8508,7 +8608,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BROWSER_20261224_00</t>
+          <t>BROWSER_20261224_01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8518,20 +8618,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-12-24 14:10:00</t>
+          <t>2026-12-24 10:12:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-12-24 17:58:14</t>
+          <t>2026-12-24 14:04:12</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>13694</v>
+        <v>13932</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>03:48:00</t>
+          <t>03:52:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8548,7 +8648,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BROWSER_20261224_01</t>
+          <t>BROWSER_20261225_00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8558,25 +8658,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-12-24 12:06:00</t>
+          <t>2026-12-25 14:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-12-24 16:21:04</t>
+          <t>2026-12-25 22:57:09</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>15304</v>
+        <v>31329</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>04:15:00</t>
+          <t>08:42:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -8588,7 +8688,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BROWSER_20261225_00</t>
+          <t>BROWSER_20261228_00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8598,25 +8698,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-12-25 09:34:00</t>
+          <t>2026-12-28 12:11:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-12-25 17:10:31</t>
+          <t>2026-12-28 16:08:24</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27391</v>
+        <v>14244</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>07:36:00</t>
+          <t>03:57:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8628,7 +8728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BROWSER_20261228_00</t>
+          <t>BROWSER_20261228_01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8638,20 +8738,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-12-28 15:32:00</t>
+          <t>2026-12-28 13:42:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-12-28 20:01:27</t>
+          <t>2026-12-28 17:43:14</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16167</v>
+        <v>14474</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>04:29:00</t>
+          <t>04:01:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8660,46 +8760,6 @@
         </is>
       </c>
       <c r="H30" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BROWSER_20261228_01</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2026-12-28 08:59:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2026-12-28 13:20:48</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>15708</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>04:21:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2026-12-28</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
